--- a/data/input_experimental.xlsx
+++ b/data/input_experimental.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon.sharepoint.com/sites/FoNS_Chemistry_RRG/Romain_Research_Group/Ryan_Reese_DigiChem_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_47C5866CB8C9003B98FC07C2E17A290884E2B735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{596CA6EB-27E7-4FDF-B8D8-99A5C90E58D6}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_47C5866CB8C9003B98FC07C2E17A290884E2B735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F80F1C33-77F5-4698-B5A3-06F635413EA2}"/>
   <bookViews>
-    <workbookView xWindow="34450" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>monomer_conc</t>
-  </si>
-  <si>
     <t>monomer_state</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>pressure</t>
   </si>
   <si>
-    <t>solvent_conc</t>
-  </si>
-  <si>
     <t>solvent_model</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>polymer_length</t>
-  </si>
-  <si>
     <t>O=C1OCCCC1</t>
   </si>
   <si>
@@ -337,6 +328,15 @@
   </si>
   <si>
     <t>THF</t>
+  </si>
+  <si>
+    <t>repeating_units</t>
+  </si>
+  <si>
+    <t>initial_monomer_conc</t>
+  </si>
+  <si>
+    <t>bulk_monomer_conc</t>
   </si>
 </sst>
 </file>
@@ -421,6 +421,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,7 +693,7 @@
   <dimension ref="A1:AD68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -705,93 +709,93 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -799,17 +803,18 @@
       <c r="F2" s="8">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>97</v>
+      <c r="G2" s="8"/>
+      <c r="H2" t="s">
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N2" s="8">
         <v>-12</v>
@@ -821,15 +826,15 @@
         <v>2025</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -837,17 +842,18 @@
       <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>97</v>
+      <c r="G3" s="8"/>
+      <c r="H3" t="s">
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N3" s="8">
         <v>-16.2</v>
@@ -859,15 +865,15 @@
         <v>2025</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -875,17 +881,18 @@
       <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>97</v>
+      <c r="G4" s="8"/>
+      <c r="H4" t="s">
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N4" s="8">
         <v>-4.5999999999999996</v>
@@ -897,15 +904,15 @@
         <v>2025</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -913,17 +920,18 @@
       <c r="F5" s="8">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>97</v>
+      <c r="G5" s="8"/>
+      <c r="H5" t="s">
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N5" s="8">
         <v>-4.2</v>
@@ -935,15 +943,15 @@
         <v>2025</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -951,17 +959,18 @@
       <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>97</v>
+      <c r="G6" s="8"/>
+      <c r="H6" t="s">
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N6" s="8">
         <v>-0.9</v>
@@ -973,15 +982,15 @@
         <v>2025</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -989,17 +998,18 @@
       <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
-        <v>97</v>
+      <c r="G7" s="8"/>
+      <c r="H7" t="s">
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N7" s="8">
         <v>-0.8</v>
@@ -1011,15 +1021,15 @@
         <v>2025</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1027,14 +1037,15 @@
       <c r="F8" s="8">
         <v>8.61</v>
       </c>
+      <c r="G8" s="8"/>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N8" s="8">
         <v>-17.2</v>
@@ -1046,15 +1057,15 @@
         <v>2025</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1062,14 +1073,15 @@
       <c r="F9" s="8">
         <v>7.68</v>
       </c>
+      <c r="G9" s="8"/>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N9" s="8">
         <v>-25</v>
@@ -1081,15 +1093,15 @@
         <v>2025</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1097,14 +1109,15 @@
       <c r="F10" s="8">
         <v>8.76</v>
       </c>
+      <c r="G10" s="8"/>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N10" s="8">
         <v>-19.3</v>
@@ -1116,15 +1129,15 @@
         <v>2025</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1132,17 +1145,18 @@
       <c r="F11" s="8">
         <v>0.2</v>
       </c>
-      <c r="G11" t="s">
-        <v>97</v>
+      <c r="G11" s="8"/>
+      <c r="H11" t="s">
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N11" s="8">
         <v>-16.600000000000001</v>
@@ -1154,15 +1168,15 @@
         <v>2025</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1170,17 +1184,18 @@
       <c r="F12" s="8">
         <v>0.35</v>
       </c>
-      <c r="G12" t="s">
-        <v>98</v>
+      <c r="G12" s="8"/>
+      <c r="H12" t="s">
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N12" s="8">
         <v>-8.4</v>
@@ -1192,28 +1207,29 @@
         <v>2002</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N13" s="8">
         <v>-10.5</v>
@@ -1225,15 +1241,15 @@
         <v>1996</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1241,17 +1257,18 @@
       <c r="F14" s="8">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
-        <v>98</v>
+      <c r="G14" s="8"/>
+      <c r="H14" t="s">
+        <v>95</v>
       </c>
       <c r="I14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N14" s="8">
         <v>-14</v>
@@ -1263,28 +1280,29 @@
         <v>2002</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N15" s="8">
         <v>-17</v>
@@ -1296,15 +1314,15 @@
         <v>1996</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1312,17 +1330,18 @@
       <c r="F16" s="8">
         <v>1.8</v>
       </c>
-      <c r="G16" t="s">
-        <v>98</v>
+      <c r="G16" s="8"/>
+      <c r="H16" t="s">
+        <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N16" s="8">
         <v>-13.8</v>
@@ -1334,15 +1353,15 @@
         <v>2002</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1350,17 +1369,18 @@
       <c r="F17" s="8">
         <v>0.2</v>
       </c>
-      <c r="G17" t="s">
-        <v>97</v>
+      <c r="G17" s="8"/>
+      <c r="H17" t="s">
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N17" s="8">
         <v>-16.8</v>
@@ -1372,28 +1392,29 @@
         <v>2005</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N18" s="8">
         <v>-17</v>
@@ -1405,28 +1426,29 @@
         <v>1996</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" t="s">
         <v>71</v>
-      </c>
-      <c r="M19" t="s">
-        <v>74</v>
       </c>
       <c r="N19" s="8">
         <v>-5.4</v>
@@ -1438,28 +1460,29 @@
         <v>1996</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N20" s="8">
         <v>-82.3</v>
@@ -1471,28 +1494,29 @@
         <v>1996</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" t="s">
         <v>71</v>
-      </c>
-      <c r="M21" t="s">
-        <v>74</v>
       </c>
       <c r="N21" s="8">
         <v>-75</v>
@@ -1504,28 +1528,29 @@
         <v>1996</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N22" s="8">
         <v>-84</v>
@@ -1537,28 +1562,29 @@
         <v>1996</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N23" s="8">
         <v>-7</v>
@@ -1570,28 +1596,29 @@
         <v>1996</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
       <c r="I24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J24" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" t="s">
         <v>71</v>
-      </c>
-      <c r="M24" t="s">
-        <v>74</v>
       </c>
       <c r="N24" s="8">
         <v>5.0999999999999996</v>
@@ -1603,28 +1630,29 @@
         <v>1996</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
       <c r="I25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" t="s">
         <v>71</v>
-      </c>
-      <c r="M25" t="s">
-        <v>74</v>
       </c>
       <c r="N25" s="8">
         <v>-10.5</v>
@@ -1636,28 +1664,29 @@
         <v>1996</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N26" s="8">
         <v>-20.9</v>
@@ -1667,28 +1696,29 @@
         <v>1980</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
       <c r="I27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M27" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N27" s="8">
         <v>-35</v>
@@ -1700,28 +1730,29 @@
         <v>1996</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
       <c r="I28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N28" s="8">
         <v>-27.4</v>
@@ -1733,28 +1764,29 @@
         <v>2009</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N29" s="8">
         <v>-31</v>
@@ -1766,28 +1798,29 @@
         <v>1996</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J30" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" t="s">
         <v>71</v>
-      </c>
-      <c r="M30" t="s">
-        <v>74</v>
       </c>
       <c r="N30" s="8">
         <v>-17</v>
@@ -1799,28 +1832,29 @@
         <v>1996</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N31" s="8">
         <v>-28.8</v>
@@ -1832,28 +1866,29 @@
         <v>2009</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N32" s="8">
         <v>-37</v>
@@ -1865,28 +1900,29 @@
         <v>1996</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J33" t="s">
+        <v>68</v>
+      </c>
+      <c r="M33" t="s">
         <v>71</v>
-      </c>
-      <c r="M33" t="s">
-        <v>74</v>
       </c>
       <c r="N33" s="8">
         <v>-19</v>
@@ -1898,28 +1934,29 @@
         <v>1996</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="I34" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N34" s="8">
         <v>-43</v>
@@ -1931,28 +1968,29 @@
         <v>1996</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="I35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J35" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" t="s">
         <v>71</v>
-      </c>
-      <c r="M35" t="s">
-        <v>74</v>
       </c>
       <c r="N35" s="8">
         <v>-21</v>
@@ -1964,28 +2002,29 @@
         <v>1996</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
       <c r="I36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N36" s="8">
         <v>-62</v>
@@ -1997,28 +2036,29 @@
         <v>1996</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="I37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J37" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" t="s">
         <v>71</v>
-      </c>
-      <c r="M37" t="s">
-        <v>74</v>
       </c>
       <c r="N37" s="8">
         <v>-28</v>
@@ -2030,28 +2070,29 @@
         <v>1996</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
       <c r="I38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N38" s="8">
         <v>-38</v>
@@ -2063,28 +2104,29 @@
         <v>1996</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="I39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J39" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39" t="s">
         <v>71</v>
-      </c>
-      <c r="M39" t="s">
-        <v>74</v>
       </c>
       <c r="N39" s="8">
         <v>2</v>
@@ -2096,28 +2138,29 @@
         <v>1996</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
       <c r="I40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N40" s="8">
         <v>-39</v>
@@ -2129,28 +2172,29 @@
         <v>1996</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
       <c r="I41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
+        <v>68</v>
+      </c>
+      <c r="M41" t="s">
         <v>71</v>
-      </c>
-      <c r="M41" t="s">
-        <v>74</v>
       </c>
       <c r="N41" s="8">
         <v>10</v>
@@ -2162,28 +2206,29 @@
         <v>1996</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
       <c r="I42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J42" t="s">
+        <v>68</v>
+      </c>
+      <c r="M42" t="s">
         <v>71</v>
-      </c>
-      <c r="M42" t="s">
-        <v>74</v>
       </c>
       <c r="N42" s="8">
         <v>-33.409999999999997</v>
@@ -2195,28 +2240,29 @@
         <v>2018</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
       <c r="I43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J43" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N43" s="8">
         <v>-19</v>
@@ -2228,15 +2274,15 @@
         <v>2015</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2244,17 +2290,18 @@
       <c r="F44" s="8">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
-        <v>99</v>
+      <c r="G44" s="8"/>
+      <c r="H44" t="s">
+        <v>96</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N44" s="8">
         <v>-22.9</v>
@@ -2266,28 +2313,29 @@
         <v>1990</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="I45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N45" s="8">
         <v>-29.1</v>
@@ -2299,28 +2347,29 @@
         <v>1990</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="I46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N46" s="8">
         <v>-23.3</v>
@@ -2332,28 +2381,29 @@
         <v>1997</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="I47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
+        <v>68</v>
+      </c>
+      <c r="M47" t="s">
         <v>71</v>
-      </c>
-      <c r="M47" t="s">
-        <v>74</v>
       </c>
       <c r="N47" s="8">
         <v>-8.6999999999999993</v>
@@ -2365,15 +2415,15 @@
         <v>1982</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2381,14 +2431,15 @@
       <c r="F48" s="8">
         <v>6</v>
       </c>
+      <c r="G48" s="8"/>
       <c r="I48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N48" s="8">
         <v>-12.2</v>
@@ -2400,15 +2451,15 @@
         <v>2024</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -2416,14 +2467,15 @@
       <c r="F49" s="8">
         <v>6</v>
       </c>
+      <c r="G49" s="8"/>
       <c r="I49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N49" s="8">
         <v>-17.100000000000001</v>
@@ -2435,15 +2487,15 @@
         <v>2024</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2451,14 +2503,15 @@
       <c r="F50" s="8">
         <v>1</v>
       </c>
+      <c r="G50" s="8"/>
       <c r="I50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J50" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M50" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N50" s="8">
         <v>-12</v>
@@ -2470,15 +2523,15 @@
         <v>2024</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -2486,14 +2539,15 @@
       <c r="F51" s="8">
         <v>1</v>
       </c>
+      <c r="G51" s="8"/>
       <c r="I51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J51" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N51" s="8">
         <v>-10.9</v>
@@ -2505,15 +2559,15 @@
         <v>2024</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -2521,14 +2575,15 @@
       <c r="F52" s="8">
         <v>1</v>
       </c>
+      <c r="G52" s="8"/>
       <c r="I52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M52" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N52" s="8">
         <v>-11.4</v>
@@ -2540,15 +2595,15 @@
         <v>2024</v>
       </c>
       <c r="R52" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -2556,14 +2611,15 @@
       <c r="F53" s="8">
         <v>1</v>
       </c>
+      <c r="G53" s="8"/>
       <c r="I53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M53" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N53" s="8">
         <v>-12.9</v>
@@ -2575,15 +2631,15 @@
         <v>2024</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -2591,14 +2647,15 @@
       <c r="F54" s="8">
         <v>1</v>
       </c>
+      <c r="G54" s="8"/>
       <c r="I54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J54" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N54" s="8">
         <v>-12.1</v>
@@ -2610,15 +2667,15 @@
         <v>2024</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -2626,14 +2683,15 @@
       <c r="F55" s="8">
         <v>1</v>
       </c>
+      <c r="G55" s="8"/>
       <c r="I55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N55" s="8">
         <v>-13.3</v>
@@ -2645,15 +2703,15 @@
         <v>2024</v>
       </c>
       <c r="R55" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -2661,17 +2719,18 @@
       <c r="F56" s="8">
         <v>10</v>
       </c>
-      <c r="G56" t="s">
-        <v>100</v>
+      <c r="G56" s="8"/>
+      <c r="H56" t="s">
+        <v>97</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N56" s="8">
         <v>-5.4</v>
@@ -2683,31 +2742,32 @@
         <v>2016</v>
       </c>
       <c r="R56" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="F57" s="8"/>
-      <c r="G57" t="s">
-        <v>101</v>
+      <c r="G57" s="8"/>
+      <c r="H57" t="s">
+        <v>98</v>
       </c>
       <c r="I57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J57" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N57" s="8">
         <v>-15.6</v>
@@ -2719,31 +2779,32 @@
         <v>2019</v>
       </c>
       <c r="R57" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="F58" s="8"/>
-      <c r="G58" t="s">
-        <v>102</v>
+      <c r="G58" s="8"/>
+      <c r="H58" t="s">
+        <v>99</v>
       </c>
       <c r="I58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J58" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N58" s="8">
         <v>-20</v>
@@ -2755,28 +2816,29 @@
         <v>2018</v>
       </c>
       <c r="R58" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
       <c r="I59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J59" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N59" s="8">
         <v>-13.8</v>
@@ -2788,28 +2850,29 @@
         <v>2014</v>
       </c>
       <c r="R59" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="I60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M60" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N60" s="8">
         <v>-17.100000000000001</v>
@@ -2821,28 +2884,29 @@
         <v>2011</v>
       </c>
       <c r="R60" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="I61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N61" s="8">
         <v>-13.8</v>
@@ -2854,28 +2918,29 @@
         <v>2003</v>
       </c>
       <c r="R61" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
       <c r="I62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M62" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N62" s="8">
         <v>-14.1</v>
@@ -2890,23 +2955,24 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
       <c r="I63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M63" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N63" s="8">
         <v>-15.8</v>
@@ -2918,28 +2984,29 @@
         <v>2001</v>
       </c>
       <c r="R63" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
       <c r="I64" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N64" s="8">
         <v>0.4</v>
@@ -2951,28 +3018,29 @@
         <v>2009</v>
       </c>
       <c r="R64" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
       <c r="I65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J65" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N65" s="8">
         <v>-7.1</v>
@@ -2984,28 +3052,29 @@
         <v>2009</v>
       </c>
       <c r="R65" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="I66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J66" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N66" s="8">
         <v>-13.8</v>
@@ -3017,31 +3086,32 @@
         <v>2009</v>
       </c>
       <c r="R66" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="F67" s="8"/>
-      <c r="G67" t="s">
-        <v>103</v>
+      <c r="G67" s="8"/>
+      <c r="H67" t="s">
+        <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M67" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N67" s="8">
         <v>-18</v>
@@ -3053,15 +3123,15 @@
         <v>2013</v>
       </c>
       <c r="R67" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3069,17 +3139,18 @@
       <c r="F68" s="8">
         <v>5</v>
       </c>
-      <c r="G68" t="s">
-        <v>100</v>
+      <c r="G68" s="8"/>
+      <c r="H68" t="s">
+        <v>97</v>
       </c>
       <c r="I68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J68" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N68" s="8">
         <v>-5.9</v>
@@ -3103,6 +3174,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002914CBC9445B8347939C6B4510D67668" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="debcf52f3d4c81bc84586c816ca1bc65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f270ae-dbad-4cfd-80e2-71659db687aa" xmlns:ns3="240bb28e-6377-48b0-832f-151ffa71870e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0db2ad47acd613f43945cc47365a45bf" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
@@ -3331,17 +3413,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
   <ds:schemaRefs>
@@ -3351,6 +3422,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB02FF4E-10B3-4B92-B10C-B2349DBBFE67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
+    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3367,21 +3455,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB02FF4E-10B3-4B92-B10C-B2349DBBFE67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
-    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input_experimental.xlsx
+++ b/data/input_experimental.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon.sharepoint.com/sites/FoNS_Chemistry_RRG/Romain_Research_Group/Ryan_Reese_DigiChem_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_47C5866CB8C9003B98FC07C2E17A290884E2B735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F80F1C33-77F5-4698-B5A3-06F635413EA2}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="11_47C5866CB8C9003B98FC07C2E17A290884E2B735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{066B9F7D-300F-4B5A-81B8-7E0DFF3966ED}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35780" yWindow="1220" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="121">
   <si>
     <t>monomer_smiles</t>
   </si>
@@ -337,16 +348,76 @@
   </si>
   <si>
     <t>bulk_monomer_conc</t>
+  </si>
+  <si>
+    <t>delta_g</t>
+  </si>
+  <si>
+    <t>ROR</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>O=C1CC(C)O1</t>
+  </si>
+  <si>
+    <t>CC1CCCOC1=O</t>
+  </si>
+  <si>
+    <t>O=C1OC(C=C)CCC1CC</t>
+  </si>
+  <si>
+    <t>O=C1OCC(C)CC1</t>
+  </si>
+  <si>
+    <t>O=C1OC(CCCC)CCC1</t>
+  </si>
+  <si>
+    <t>O=C1OC(CC)CCC1CC</t>
+  </si>
+  <si>
+    <t>O=C1OC(C=C)CC/C1=C\C</t>
+  </si>
+  <si>
+    <t>O=C1OCC2=C(C=CC=C2)C1</t>
+  </si>
+  <si>
+    <t>O=C1OC(C)CC1</t>
+  </si>
+  <si>
+    <t>O=C1OC(CCCCC)CC1</t>
+  </si>
+  <si>
+    <t>O=C1OCCC1C</t>
+  </si>
+  <si>
+    <t>CD3OD</t>
+  </si>
+  <si>
+    <t>NMR</t>
+  </si>
+  <si>
+    <t>10.1021/acs.macromol.2c01141</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -390,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -401,6 +472,7 @@
     <xf numFmtId="12" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,15 +762,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD68"/>
+  <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="18" max="18" width="10.15625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -748,49 +823,52 @@
         <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -822,14 +900,14 @@
       <c r="O2" s="8">
         <v>-24</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2025</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -861,14 +939,14 @@
       <c r="O3" s="8">
         <v>-13</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2025</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -900,14 +978,14 @@
       <c r="O4" s="8">
         <v>18</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2025</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -939,14 +1017,14 @@
       <c r="O5" s="8">
         <v>-7.4</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2025</v>
       </c>
-      <c r="R5" s="9" t="s">
+      <c r="S5" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -978,14 +1056,14 @@
       <c r="O6" s="8">
         <v>2.7</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>2025</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1017,14 +1095,14 @@
       <c r="O7" s="8">
         <v>16</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2025</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1044,6 +1122,9 @@
       <c r="J8" t="s">
         <v>66</v>
       </c>
+      <c r="K8">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M8" t="s">
         <v>70</v>
       </c>
@@ -1053,14 +1134,14 @@
       <c r="O8" s="8">
         <v>-40.700000000000003</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2025</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1080,6 +1161,9 @@
       <c r="J9" t="s">
         <v>66</v>
       </c>
+      <c r="K9">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M9" t="s">
         <v>70</v>
       </c>
@@ -1089,14 +1173,14 @@
       <c r="O9" s="8">
         <v>-51.7</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2025</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="S9" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1116,6 +1200,9 @@
       <c r="J10" t="s">
         <v>66</v>
       </c>
+      <c r="K10">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M10" t="s">
         <v>70</v>
       </c>
@@ -1125,14 +1212,14 @@
       <c r="O10" s="8">
         <v>-62</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2025</v>
       </c>
-      <c r="R10" s="9" t="s">
+      <c r="S10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1164,14 +1251,14 @@
       <c r="O11" s="8">
         <v>-23.9</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2025</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="S11" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1203,14 +1290,14 @@
       <c r="O12" s="8">
         <v>-14.7</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>2002</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="S12" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1237,14 +1324,14 @@
       <c r="O13" s="8">
         <v>-15</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1996</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="S13" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1276,14 +1363,14 @@
       <c r="O14" s="8">
         <v>-6</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2002</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="S14" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1310,14 +1397,14 @@
       <c r="O15" s="8">
         <v>-4</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1996</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="S15" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1349,14 +1436,14 @@
       <c r="O16" s="8">
         <v>-41.2</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>2002</v>
       </c>
-      <c r="R16" s="9" t="s">
+      <c r="S16" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1388,14 +1475,14 @@
       <c r="O17" s="8">
         <v>-27.4</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2005</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="S17" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1413,6 +1500,9 @@
       <c r="J18" t="s">
         <v>67</v>
       </c>
+      <c r="K18">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M18" t="s">
         <v>71</v>
       </c>
@@ -1422,14 +1512,14 @@
       <c r="O18" s="8">
         <v>-3.2</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1996</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="S18" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1447,6 +1537,9 @@
       <c r="J19" t="s">
         <v>68</v>
       </c>
+      <c r="K19">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M19" t="s">
         <v>71</v>
       </c>
@@ -1456,14 +1549,14 @@
       <c r="O19" s="8">
         <v>5.3</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1996</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="S19" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1481,6 +1574,9 @@
       <c r="J20" t="s">
         <v>67</v>
       </c>
+      <c r="K20">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M20" t="s">
         <v>71</v>
       </c>
@@ -1490,14 +1586,14 @@
       <c r="O20" s="8">
         <v>-74</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1996</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="S20" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1515,6 +1611,9 @@
       <c r="J21" t="s">
         <v>68</v>
       </c>
+      <c r="K21">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M21" t="s">
         <v>71</v>
       </c>
@@ -1524,14 +1623,14 @@
       <c r="O21" s="8">
         <v>-54</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1996</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="S21" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1549,6 +1648,9 @@
       <c r="J22" t="s">
         <v>67</v>
       </c>
+      <c r="K22">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M22" t="s">
         <v>71</v>
       </c>
@@ -1558,14 +1660,14 @@
       <c r="O22" s="8">
         <v>-74</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1996</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="S22" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1583,6 +1685,9 @@
       <c r="J23" t="s">
         <v>67</v>
       </c>
+      <c r="K23">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M23" t="s">
         <v>71</v>
       </c>
@@ -1592,14 +1697,14 @@
       <c r="O23" s="8">
         <v>-65</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>1996</v>
       </c>
-      <c r="R23" s="9" t="s">
+      <c r="S23" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1617,6 +1722,9 @@
       <c r="J24" t="s">
         <v>68</v>
       </c>
+      <c r="K24">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M24" t="s">
         <v>71</v>
       </c>
@@ -1626,14 +1734,14 @@
       <c r="O24" s="8">
         <v>-29.9</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1996</v>
       </c>
-      <c r="R24" s="9" t="s">
+      <c r="S24" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1651,6 +1759,9 @@
       <c r="J25" t="s">
         <v>68</v>
       </c>
+      <c r="K25">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M25" t="s">
         <v>71</v>
       </c>
@@ -1660,14 +1771,14 @@
       <c r="O25" s="8">
         <v>-15</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1996</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="S25" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1685,6 +1796,9 @@
       <c r="J26" t="s">
         <v>67</v>
       </c>
+      <c r="K26">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M26" t="s">
         <v>71</v>
       </c>
@@ -1692,14 +1806,14 @@
         <v>-20.9</v>
       </c>
       <c r="O26" s="8"/>
-      <c r="Q26">
+      <c r="R26">
         <v>1980</v>
       </c>
-      <c r="R26" s="9" t="s">
+      <c r="S26" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -1717,6 +1831,9 @@
       <c r="J27" t="s">
         <v>67</v>
       </c>
+      <c r="K27">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M27" t="s">
         <v>71</v>
       </c>
@@ -1726,14 +1843,14 @@
       <c r="O27" s="8">
         <v>-76</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1996</v>
       </c>
-      <c r="R27" s="9" t="s">
+      <c r="S27" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1751,6 +1868,9 @@
       <c r="J28" t="s">
         <v>67</v>
       </c>
+      <c r="K28">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M28" t="s">
         <v>71</v>
       </c>
@@ -1760,14 +1880,14 @@
       <c r="O28" s="8">
         <v>-65</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2009</v>
       </c>
-      <c r="R28" s="9" t="s">
+      <c r="S28" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1785,6 +1905,9 @@
       <c r="J29" t="s">
         <v>67</v>
       </c>
+      <c r="K29">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M29" t="s">
         <v>71</v>
       </c>
@@ -1794,14 +1917,14 @@
       <c r="O29" s="8">
         <v>-54</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1996</v>
       </c>
-      <c r="R29" s="9" t="s">
+      <c r="S29" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1819,6 +1942,9 @@
       <c r="J30" t="s">
         <v>68</v>
       </c>
+      <c r="K30">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M30" t="s">
         <v>71</v>
       </c>
@@ -1828,14 +1954,14 @@
       <c r="O30" s="8">
         <v>-4</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1996</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="S30" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1853,6 +1979,9 @@
       <c r="J31" t="s">
         <v>67</v>
       </c>
+      <c r="K31">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M31" t="s">
         <v>71</v>
       </c>
@@ -1862,14 +1991,14 @@
       <c r="O31" s="8">
         <v>-53.9</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2009</v>
       </c>
-      <c r="R31" s="9" t="s">
+      <c r="S31" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1887,6 +2016,9 @@
       <c r="J32" t="s">
         <v>67</v>
       </c>
+      <c r="K32">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M32" t="s">
         <v>71</v>
       </c>
@@ -1896,14 +2028,14 @@
       <c r="O32" s="8">
         <v>-60</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>1996</v>
       </c>
-      <c r="R32" s="9" t="s">
+      <c r="S32" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1921,6 +2053,9 @@
       <c r="J33" t="s">
         <v>68</v>
       </c>
+      <c r="K33">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M33" t="s">
         <v>71</v>
       </c>
@@ -1930,14 +2065,14 @@
       <c r="O33" s="8">
         <v>2</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>1996</v>
       </c>
-      <c r="R33" s="9" t="s">
+      <c r="S33" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1955,6 +2090,9 @@
       <c r="J34" t="s">
         <v>67</v>
       </c>
+      <c r="K34">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M34" t="s">
         <v>71</v>
       </c>
@@ -1964,14 +2102,14 @@
       <c r="O34" s="8">
         <v>-61</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1996</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="S34" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1989,6 +2127,9 @@
       <c r="J35" t="s">
         <v>68</v>
       </c>
+      <c r="K35">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M35" t="s">
         <v>71</v>
       </c>
@@ -1998,14 +2139,14 @@
       <c r="O35" s="8">
         <v>7</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>1996</v>
       </c>
-      <c r="R35" s="9" t="s">
+      <c r="S35" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2023,6 +2164,9 @@
       <c r="J36" t="s">
         <v>67</v>
       </c>
+      <c r="K36">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M36" t="s">
         <v>71</v>
       </c>
@@ -2032,14 +2176,14 @@
       <c r="O36" s="8">
         <v>-69</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>1996</v>
       </c>
-      <c r="R36" s="9" t="s">
+      <c r="S36" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2057,6 +2201,9 @@
       <c r="J37" t="s">
         <v>68</v>
       </c>
+      <c r="K37">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M37" t="s">
         <v>71</v>
       </c>
@@ -2066,14 +2213,14 @@
       <c r="O37" s="8">
         <v>24</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>1996</v>
       </c>
-      <c r="R37" s="9" t="s">
+      <c r="S37" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -2091,6 +2238,9 @@
       <c r="J38" t="s">
         <v>67</v>
       </c>
+      <c r="K38">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M38" t="s">
         <v>71</v>
       </c>
@@ -2100,14 +2250,14 @@
       <c r="O38" s="8">
         <v>-50</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>1996</v>
       </c>
-      <c r="R38" s="9" t="s">
+      <c r="S38" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2125,6 +2275,9 @@
       <c r="J39" t="s">
         <v>68</v>
       </c>
+      <c r="K39">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M39" t="s">
         <v>71</v>
       </c>
@@ -2134,14 +2287,14 @@
       <c r="O39" s="8">
         <v>57</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>1996</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="S39" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -2159,6 +2312,9 @@
       <c r="J40" t="s">
         <v>67</v>
       </c>
+      <c r="K40">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M40" t="s">
         <v>71</v>
       </c>
@@ -2168,14 +2324,14 @@
       <c r="O40" s="8">
         <v>-86</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>1996</v>
       </c>
-      <c r="R40" s="9" t="s">
+      <c r="S40" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -2193,6 +2349,9 @@
       <c r="J41" t="s">
         <v>68</v>
       </c>
+      <c r="K41">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M41" t="s">
         <v>71</v>
       </c>
@@ -2202,14 +2361,14 @@
       <c r="O41" s="8">
         <v>41</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>1996</v>
       </c>
-      <c r="R41" s="9" t="s">
+      <c r="S41" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2227,6 +2386,9 @@
       <c r="J42" t="s">
         <v>68</v>
       </c>
+      <c r="K42">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M42" t="s">
         <v>71</v>
       </c>
@@ -2236,14 +2398,14 @@
       <c r="O42" s="8">
         <v>-42.69</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>2018</v>
       </c>
-      <c r="R42" s="9" t="s">
+      <c r="S42" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2261,6 +2423,9 @@
       <c r="J43" t="s">
         <v>68</v>
       </c>
+      <c r="K43">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M43" t="s">
         <v>70</v>
       </c>
@@ -2270,14 +2435,14 @@
       <c r="O43" s="8">
         <v>-12</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>2015</v>
       </c>
-      <c r="R43" s="9" t="s">
+      <c r="S43" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2309,14 +2474,14 @@
       <c r="O44" s="8">
         <v>-25.03</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>1990</v>
       </c>
-      <c r="R44" s="9" t="s">
+      <c r="S44" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2343,14 +2508,14 @@
       <c r="O45" s="8">
         <v>-40.74</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>1990</v>
       </c>
-      <c r="R45" s="9" t="s">
+      <c r="S45" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2377,14 +2542,14 @@
       <c r="O46" s="8">
         <v>-22</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>1997</v>
       </c>
-      <c r="R46" s="9" t="s">
+      <c r="S46" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2402,6 +2567,9 @@
       <c r="J47" t="s">
         <v>68</v>
       </c>
+      <c r="K47">
+        <v>298.14999999999998</v>
+      </c>
       <c r="M47" t="s">
         <v>71</v>
       </c>
@@ -2411,14 +2579,14 @@
       <c r="O47" s="8">
         <v>31.3</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>1982</v>
       </c>
-      <c r="R47" s="9" t="s">
+      <c r="S47" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2447,14 +2615,14 @@
       <c r="O48" s="8">
         <v>-40.1</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>2024</v>
       </c>
-      <c r="R48" s="9" t="s">
+      <c r="S48" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>32</v>
       </c>
@@ -2483,14 +2651,14 @@
       <c r="O49" s="8">
         <v>-54.4</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>2024</v>
       </c>
-      <c r="R49" s="9" t="s">
+      <c r="S49" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2519,14 +2687,14 @@
       <c r="O50" s="8">
         <v>-27.2</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>2024</v>
       </c>
-      <c r="R50" s="9" t="s">
+      <c r="S50" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2555,14 +2723,14 @@
       <c r="O51" s="8">
         <v>-22.5</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>2024</v>
       </c>
-      <c r="R51" s="9" t="s">
+      <c r="S51" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2591,14 +2759,14 @@
       <c r="O52" s="8">
         <v>-23.3</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>2024</v>
       </c>
-      <c r="R52" s="9" t="s">
+      <c r="S52" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2627,14 +2795,14 @@
       <c r="O53" s="8">
         <v>-27.7</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>2024</v>
       </c>
-      <c r="R53" s="9" t="s">
+      <c r="S53" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2663,14 +2831,14 @@
       <c r="O54" s="8">
         <v>-25.9</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>2024</v>
       </c>
-      <c r="R54" s="9" t="s">
+      <c r="S54" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2699,14 +2867,14 @@
       <c r="O55" s="8">
         <v>-27.5</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>2024</v>
       </c>
-      <c r="R55" s="9" t="s">
+      <c r="S55" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -2738,14 +2906,14 @@
       <c r="O56" s="8">
         <v>-39.6</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>2016</v>
       </c>
-      <c r="R56" s="9" t="s">
+      <c r="S56" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2775,14 +2943,14 @@
       <c r="O57" s="8">
         <v>-40.4</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>2019</v>
       </c>
-      <c r="R57" s="9" t="s">
+      <c r="S57" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2812,14 +2980,14 @@
       <c r="O58" s="8">
         <v>-72</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>2018</v>
       </c>
-      <c r="R58" s="9" t="s">
+      <c r="S58" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -2846,14 +3014,14 @@
       <c r="O59" s="8">
         <v>-46</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>2014</v>
       </c>
-      <c r="R59" s="9" t="s">
+      <c r="S59" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -2880,14 +3048,14 @@
       <c r="O60" s="8">
         <v>-54</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>2011</v>
       </c>
-      <c r="R60" s="9" t="s">
+      <c r="S60" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -2914,14 +3082,14 @@
       <c r="O61" s="8">
         <v>-45</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>2003</v>
       </c>
-      <c r="R61" s="9" t="s">
+      <c r="S61" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>57</v>
       </c>
@@ -2948,12 +3116,12 @@
       <c r="O62" s="8">
         <v>-45.3</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>2000</v>
       </c>
-      <c r="R62" s="9"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -2980,14 +3148,14 @@
       <c r="O63" s="8">
         <v>-50.4</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>2001</v>
       </c>
-      <c r="R63" s="9" t="s">
+      <c r="S63" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -3014,14 +3182,14 @@
       <c r="O64" s="8">
         <v>-30.1</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>2009</v>
       </c>
-      <c r="R64" s="9" t="s">
+      <c r="S64" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -3048,14 +3216,14 @@
       <c r="O65" s="8">
         <v>-27.6</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>2009</v>
       </c>
-      <c r="R65" s="9" t="s">
+      <c r="S65" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -3082,14 +3250,14 @@
       <c r="O66" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>2009</v>
       </c>
-      <c r="R66" s="9" t="s">
+      <c r="S66" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -3119,14 +3287,14 @@
       <c r="O67" s="8">
         <v>-65</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>2013</v>
       </c>
-      <c r="R67" s="9" t="s">
+      <c r="S67" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -3159,21 +3327,697 @@
         <v>-40.1</v>
       </c>
     </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>106</v>
+      </c>
+      <c r="H69" t="s">
+        <v>118</v>
+      </c>
+      <c r="I69" t="s">
+        <v>65</v>
+      </c>
+      <c r="J69" t="s">
+        <v>65</v>
+      </c>
+      <c r="K69">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M69" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>-13.137760000000002</v>
+      </c>
+      <c r="R69" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" t="s">
+        <v>118</v>
+      </c>
+      <c r="I70" t="s">
+        <v>65</v>
+      </c>
+      <c r="J70" t="s">
+        <v>65</v>
+      </c>
+      <c r="K70">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M70" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>-10.878400000000001</v>
+      </c>
+      <c r="R70" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H71" t="s">
+        <v>118</v>
+      </c>
+      <c r="I71" t="s">
+        <v>65</v>
+      </c>
+      <c r="J71" t="s">
+        <v>65</v>
+      </c>
+      <c r="K71">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M71" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>-10.878400000000001</v>
+      </c>
+      <c r="R71" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" t="s">
+        <v>118</v>
+      </c>
+      <c r="I72" t="s">
+        <v>65</v>
+      </c>
+      <c r="J72" t="s">
+        <v>65</v>
+      </c>
+      <c r="K72">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M72" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>-10.878400000000001</v>
+      </c>
+      <c r="R72" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73" t="s">
+        <v>118</v>
+      </c>
+      <c r="I73" t="s">
+        <v>65</v>
+      </c>
+      <c r="J73" t="s">
+        <v>65</v>
+      </c>
+      <c r="K73">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M73" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>-10.878400000000001</v>
+      </c>
+      <c r="R73" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H74" t="s">
+        <v>118</v>
+      </c>
+      <c r="I74" t="s">
+        <v>65</v>
+      </c>
+      <c r="J74" t="s">
+        <v>65</v>
+      </c>
+      <c r="K74">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M74" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>-4.0166399999999998</v>
+      </c>
+      <c r="R74" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>106</v>
+      </c>
+      <c r="H75" t="s">
+        <v>118</v>
+      </c>
+      <c r="I75" t="s">
+        <v>65</v>
+      </c>
+      <c r="J75" t="s">
+        <v>65</v>
+      </c>
+      <c r="K75">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M75" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>-1.7154400000000001</v>
+      </c>
+      <c r="R75" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>106</v>
+      </c>
+      <c r="H76" t="s">
+        <v>118</v>
+      </c>
+      <c r="I76" t="s">
+        <v>65</v>
+      </c>
+      <c r="J76" t="s">
+        <v>65</v>
+      </c>
+      <c r="K76">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M76" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>-0.66944000000000004</v>
+      </c>
+      <c r="R76" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>106</v>
+      </c>
+      <c r="H77" t="s">
+        <v>118</v>
+      </c>
+      <c r="I77" t="s">
+        <v>65</v>
+      </c>
+      <c r="J77" t="s">
+        <v>65</v>
+      </c>
+      <c r="K77">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M77" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>4.1840000000000002E-2</v>
+      </c>
+      <c r="R77" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" t="s">
+        <v>118</v>
+      </c>
+      <c r="I78" t="s">
+        <v>65</v>
+      </c>
+      <c r="J78" t="s">
+        <v>65</v>
+      </c>
+      <c r="K78">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M78" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>4.1840000000000002E-2</v>
+      </c>
+      <c r="R78" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" t="s">
+        <v>118</v>
+      </c>
+      <c r="I79" t="s">
+        <v>65</v>
+      </c>
+      <c r="J79" t="s">
+        <v>65</v>
+      </c>
+      <c r="K79">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M79" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>1.50624</v>
+      </c>
+      <c r="R79" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>106</v>
+      </c>
+      <c r="H80" t="s">
+        <v>118</v>
+      </c>
+      <c r="I80" t="s">
+        <v>65</v>
+      </c>
+      <c r="J80" t="s">
+        <v>65</v>
+      </c>
+      <c r="K80">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M80" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>1.50624</v>
+      </c>
+      <c r="R80" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>106</v>
+      </c>
+      <c r="H81" t="s">
+        <v>118</v>
+      </c>
+      <c r="I81" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81" t="s">
+        <v>65</v>
+      </c>
+      <c r="K81">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M81" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>2.2175200000000004</v>
+      </c>
+      <c r="R81" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>106</v>
+      </c>
+      <c r="H82" t="s">
+        <v>118</v>
+      </c>
+      <c r="I82" t="s">
+        <v>65</v>
+      </c>
+      <c r="J82" t="s">
+        <v>65</v>
+      </c>
+      <c r="K82">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M82" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>4.8115999999999994</v>
+      </c>
+      <c r="R82" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>106</v>
+      </c>
+      <c r="H83" t="s">
+        <v>118</v>
+      </c>
+      <c r="I83" t="s">
+        <v>65</v>
+      </c>
+      <c r="J83" t="s">
+        <v>65</v>
+      </c>
+      <c r="K83">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M83" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>7.9914399999999999</v>
+      </c>
+      <c r="R83" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" t="s">
+        <v>118</v>
+      </c>
+      <c r="I84" t="s">
+        <v>65</v>
+      </c>
+      <c r="J84" t="s">
+        <v>65</v>
+      </c>
+      <c r="K84">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M84" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>9.2466400000000011</v>
+      </c>
+      <c r="R84" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>106</v>
+      </c>
+      <c r="H85" t="s">
+        <v>118</v>
+      </c>
+      <c r="I85" t="s">
+        <v>65</v>
+      </c>
+      <c r="J85" t="s">
+        <v>65</v>
+      </c>
+      <c r="K85">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M85" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>10.167120000000001</v>
+      </c>
+      <c r="R85" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>106</v>
+      </c>
+      <c r="H86" t="s">
+        <v>118</v>
+      </c>
+      <c r="I86" t="s">
+        <v>65</v>
+      </c>
+      <c r="J86" t="s">
+        <v>65</v>
+      </c>
+      <c r="K86">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M86" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>10.54368</v>
+      </c>
+      <c r="R86" s="10">
+        <v>44950</v>
+      </c>
+      <c r="S86" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
@@ -3182,6 +4026,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3414,14 +4267,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB02FF4E-10B3-4B92-B10C-B2349DBBFE67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -3434,6 +4279,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/input_experimental.xlsx
+++ b/data/input_experimental.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon.sharepoint.com/sites/FoNS_Chemistry_RRG/Romain_Research_Group/Ryan_Reese_DigiChem_2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexganose/dev/src/tropic/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="11_47C5866CB8C9003B98FC07C2E17A290884E2B735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{066B9F7D-300F-4B5A-81B8-7E0DFF3966ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B466A4-395E-4249-9437-C07A0DC28E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35780" yWindow="1220" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31360" yWindow="1220" windowWidth="28800" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>monomer_smiles</t>
   </si>
   <si>
-    <t>polymerisation_type</t>
-  </si>
-  <si>
     <t>is_experimental</t>
   </si>
   <si>
@@ -399,6 +396,9 @@
   </si>
   <si>
     <t>10.1021/acs.macromol.2c01141</t>
+  </si>
+  <si>
+    <t>reaction_type</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -472,7 +472,7 @@
     <xf numFmtId="12" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +493,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,116 +760,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="18" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="S1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="AB1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -883,16 +879,16 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N2" s="8">
         <v>-12</v>
@@ -904,15 +900,15 @@
         <v>2025</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -922,16 +918,16 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N3" s="8">
         <v>-16.2</v>
@@ -943,15 +939,15 @@
         <v>2025</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -961,16 +957,16 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N4" s="8">
         <v>-4.5999999999999996</v>
@@ -982,15 +978,15 @@
         <v>2025</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1000,16 +996,16 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N5" s="8">
         <v>-4.2</v>
@@ -1021,15 +1017,15 @@
         <v>2025</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1039,16 +1035,16 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="8">
         <v>-0.9</v>
@@ -1060,15 +1056,15 @@
         <v>2025</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1078,16 +1074,16 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7" s="8">
         <v>-0.8</v>
@@ -1099,15 +1095,15 @@
         <v>2025</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1117,16 +1113,16 @@
       </c>
       <c r="G8" s="8"/>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8">
         <v>298.14999999999998</v>
       </c>
       <c r="M8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N8" s="8">
         <v>-17.2</v>
@@ -1138,15 +1134,15 @@
         <v>2025</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1156,16 +1152,16 @@
       </c>
       <c r="G9" s="8"/>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9">
         <v>298.14999999999998</v>
       </c>
       <c r="M9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9" s="8">
         <v>-25</v>
@@ -1177,15 +1173,15 @@
         <v>2025</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1195,16 +1191,16 @@
       </c>
       <c r="G10" s="8"/>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K10">
         <v>298.14999999999998</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10" s="8">
         <v>-19.3</v>
@@ -1216,15 +1212,15 @@
         <v>2025</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1234,16 +1230,16 @@
       </c>
       <c r="G11" s="8"/>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N11" s="8">
         <v>-16.600000000000001</v>
@@ -1255,15 +1251,15 @@
         <v>2025</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1273,16 +1269,16 @@
       </c>
       <c r="G12" s="8"/>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N12" s="8">
         <v>-8.4</v>
@@ -1294,15 +1290,15 @@
         <v>2002</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1310,13 +1306,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="I13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" t="s">
         <v>66</v>
       </c>
-      <c r="J13" t="s">
-        <v>67</v>
-      </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N13" s="8">
         <v>-10.5</v>
@@ -1328,15 +1324,15 @@
         <v>1996</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1346,16 +1342,16 @@
       </c>
       <c r="G14" s="8"/>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N14" s="8">
         <v>-14</v>
@@ -1367,15 +1363,15 @@
         <v>2002</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1383,13 +1379,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="I15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" t="s">
         <v>66</v>
       </c>
-      <c r="J15" t="s">
-        <v>67</v>
-      </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N15" s="8">
         <v>-17</v>
@@ -1401,15 +1397,15 @@
         <v>1996</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1419,16 +1415,16 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N16" s="8">
         <v>-13.8</v>
@@ -1440,15 +1436,15 @@
         <v>2002</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1458,16 +1454,16 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N17" s="8">
         <v>-16.8</v>
@@ -1479,15 +1475,15 @@
         <v>2005</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1495,16 +1491,16 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="I18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18">
         <v>298.14999999999998</v>
       </c>
       <c r="M18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N18" s="8">
         <v>-17</v>
@@ -1516,15 +1512,15 @@
         <v>1996</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1532,16 +1528,16 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" t="s">
-        <v>68</v>
-      </c>
       <c r="K19">
         <v>298.14999999999998</v>
       </c>
       <c r="M19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N19" s="8">
         <v>-5.4</v>
@@ -1553,15 +1549,15 @@
         <v>1996</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1569,16 +1565,16 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="I20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" t="s">
         <v>66</v>
       </c>
-      <c r="J20" t="s">
-        <v>67</v>
-      </c>
       <c r="K20">
         <v>298.14999999999998</v>
       </c>
       <c r="M20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N20" s="8">
         <v>-82.3</v>
@@ -1590,15 +1586,15 @@
         <v>1996</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1606,16 +1602,16 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21">
         <v>298.14999999999998</v>
       </c>
       <c r="M21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N21" s="8">
         <v>-75</v>
@@ -1627,15 +1623,15 @@
         <v>1996</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1643,16 +1639,16 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" t="s">
         <v>66</v>
       </c>
-      <c r="J22" t="s">
-        <v>67</v>
-      </c>
       <c r="K22">
         <v>298.14999999999998</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N22" s="8">
         <v>-84</v>
@@ -1664,15 +1660,15 @@
         <v>1996</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1680,16 +1676,16 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="I23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" t="s">
         <v>66</v>
       </c>
-      <c r="J23" t="s">
-        <v>67</v>
-      </c>
       <c r="K23">
         <v>298.14999999999998</v>
       </c>
       <c r="M23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N23" s="8">
         <v>-7</v>
@@ -1701,15 +1697,15 @@
         <v>1996</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1717,16 +1713,16 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24">
         <v>298.14999999999998</v>
       </c>
       <c r="M24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N24" s="8">
         <v>5.0999999999999996</v>
@@ -1738,15 +1734,15 @@
         <v>1996</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1754,16 +1750,16 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K25">
         <v>298.14999999999998</v>
       </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N25" s="8">
         <v>-10.5</v>
@@ -1775,15 +1771,15 @@
         <v>1996</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1791,16 +1787,16 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26">
         <v>298.14999999999998</v>
       </c>
       <c r="M26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N26" s="8">
         <v>-20.9</v>
@@ -1810,15 +1806,15 @@
         <v>1980</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1826,16 +1822,16 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="I27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" t="s">
         <v>66</v>
       </c>
-      <c r="J27" t="s">
-        <v>67</v>
-      </c>
       <c r="K27">
         <v>298.14999999999998</v>
       </c>
       <c r="M27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N27" s="8">
         <v>-35</v>
@@ -1847,15 +1843,15 @@
         <v>1996</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1863,16 +1859,16 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="I28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" t="s">
         <v>66</v>
       </c>
-      <c r="J28" t="s">
-        <v>67</v>
-      </c>
       <c r="K28">
         <v>298.14999999999998</v>
       </c>
       <c r="M28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N28" s="8">
         <v>-27.4</v>
@@ -1884,15 +1880,15 @@
         <v>2009</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1900,16 +1896,16 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="I29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" t="s">
         <v>66</v>
       </c>
-      <c r="J29" t="s">
-        <v>67</v>
-      </c>
       <c r="K29">
         <v>298.14999999999998</v>
       </c>
       <c r="M29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N29" s="8">
         <v>-31</v>
@@ -1921,15 +1917,15 @@
         <v>1996</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1937,16 +1933,16 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30">
         <v>298.14999999999998</v>
       </c>
       <c r="M30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N30" s="8">
         <v>-17</v>
@@ -1958,15 +1954,15 @@
         <v>1996</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1974,16 +1970,16 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="I31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" t="s">
         <v>66</v>
       </c>
-      <c r="J31" t="s">
-        <v>67</v>
-      </c>
       <c r="K31">
         <v>298.14999999999998</v>
       </c>
       <c r="M31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N31" s="8">
         <v>-28.8</v>
@@ -1995,15 +1991,15 @@
         <v>2009</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2011,16 +2007,16 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="I32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" t="s">
         <v>66</v>
       </c>
-      <c r="J32" t="s">
-        <v>67</v>
-      </c>
       <c r="K32">
         <v>298.14999999999998</v>
       </c>
       <c r="M32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N32" s="8">
         <v>-37</v>
@@ -2032,15 +2028,15 @@
         <v>1996</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2048,16 +2044,16 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K33">
         <v>298.14999999999998</v>
       </c>
       <c r="M33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N33" s="8">
         <v>-19</v>
@@ -2069,15 +2065,15 @@
         <v>1996</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2085,16 +2081,16 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="I34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" t="s">
         <v>66</v>
       </c>
-      <c r="J34" t="s">
-        <v>67</v>
-      </c>
       <c r="K34">
         <v>298.14999999999998</v>
       </c>
       <c r="M34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N34" s="8">
         <v>-43</v>
@@ -2106,15 +2102,15 @@
         <v>1996</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2122,16 +2118,16 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="I35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K35">
         <v>298.14999999999998</v>
       </c>
       <c r="M35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N35" s="8">
         <v>-21</v>
@@ -2143,15 +2139,15 @@
         <v>1996</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2159,16 +2155,16 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="I36" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" t="s">
         <v>66</v>
       </c>
-      <c r="J36" t="s">
-        <v>67</v>
-      </c>
       <c r="K36">
         <v>298.14999999999998</v>
       </c>
       <c r="M36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N36" s="8">
         <v>-62</v>
@@ -2180,15 +2176,15 @@
         <v>1996</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2196,16 +2192,16 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K37">
         <v>298.14999999999998</v>
       </c>
       <c r="M37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N37" s="8">
         <v>-28</v>
@@ -2217,15 +2213,15 @@
         <v>1996</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2233,16 +2229,16 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="I38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38">
         <v>298.14999999999998</v>
       </c>
       <c r="M38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N38" s="8">
         <v>-38</v>
@@ -2254,15 +2250,15 @@
         <v>1996</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2270,16 +2266,16 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="I39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
         <v>67</v>
       </c>
-      <c r="J39" t="s">
-        <v>68</v>
-      </c>
       <c r="K39">
         <v>298.14999999999998</v>
       </c>
       <c r="M39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N39" s="8">
         <v>2</v>
@@ -2291,15 +2287,15 @@
         <v>1996</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2307,16 +2303,16 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="I40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K40">
         <v>298.14999999999998</v>
       </c>
       <c r="M40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N40" s="8">
         <v>-39</v>
@@ -2328,15 +2324,15 @@
         <v>1996</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2344,16 +2340,16 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="I41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
         <v>67</v>
       </c>
-      <c r="J41" t="s">
-        <v>68</v>
-      </c>
       <c r="K41">
         <v>298.14999999999998</v>
       </c>
       <c r="M41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N41" s="8">
         <v>10</v>
@@ -2365,15 +2361,15 @@
         <v>1996</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2381,16 +2377,16 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="I42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K42">
         <v>298.14999999999998</v>
       </c>
       <c r="M42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N42" s="8">
         <v>-33.409999999999997</v>
@@ -2402,15 +2398,15 @@
         <v>2018</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2418,16 +2414,16 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="I43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K43">
         <v>298.14999999999998</v>
       </c>
       <c r="M43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N43" s="8">
         <v>-19</v>
@@ -2439,15 +2435,15 @@
         <v>2015</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2457,16 +2453,16 @@
       </c>
       <c r="G44" s="8"/>
       <c r="H44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N44" s="8">
         <v>-22.9</v>
@@ -2478,15 +2474,15 @@
         <v>1990</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2494,13 +2490,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="I45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N45" s="8">
         <v>-29.1</v>
@@ -2512,15 +2508,15 @@
         <v>1990</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -2528,13 +2524,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="I46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N46" s="8">
         <v>-23.3</v>
@@ -2546,15 +2542,15 @@
         <v>1997</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2562,16 +2558,16 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="I47" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" t="s">
         <v>67</v>
       </c>
-      <c r="J47" t="s">
-        <v>68</v>
-      </c>
       <c r="K47">
         <v>298.14999999999998</v>
       </c>
       <c r="M47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N47" s="8">
         <v>-8.6999999999999993</v>
@@ -2583,15 +2579,15 @@
         <v>1982</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2601,13 +2597,13 @@
       </c>
       <c r="G48" s="8"/>
       <c r="I48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N48" s="8">
         <v>-12.2</v>
@@ -2619,15 +2615,15 @@
         <v>2024</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -2637,13 +2633,13 @@
       </c>
       <c r="G49" s="8"/>
       <c r="I49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N49" s="8">
         <v>-17.100000000000001</v>
@@ -2655,15 +2651,15 @@
         <v>2024</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2673,13 +2669,13 @@
       </c>
       <c r="G50" s="8"/>
       <c r="I50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N50" s="8">
         <v>-12</v>
@@ -2691,15 +2687,15 @@
         <v>2024</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -2709,13 +2705,13 @@
       </c>
       <c r="G51" s="8"/>
       <c r="I51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N51" s="8">
         <v>-10.9</v>
@@ -2727,15 +2723,15 @@
         <v>2024</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -2745,13 +2741,13 @@
       </c>
       <c r="G52" s="8"/>
       <c r="I52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N52" s="8">
         <v>-11.4</v>
@@ -2763,15 +2759,15 @@
         <v>2024</v>
       </c>
       <c r="S52" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -2781,13 +2777,13 @@
       </c>
       <c r="G53" s="8"/>
       <c r="I53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N53" s="8">
         <v>-12.9</v>
@@ -2799,15 +2795,15 @@
         <v>2024</v>
       </c>
       <c r="S53" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -2817,13 +2813,13 @@
       </c>
       <c r="G54" s="8"/>
       <c r="I54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N54" s="8">
         <v>-12.1</v>
@@ -2835,15 +2831,15 @@
         <v>2024</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -2853,13 +2849,13 @@
       </c>
       <c r="G55" s="8"/>
       <c r="I55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N55" s="8">
         <v>-13.3</v>
@@ -2871,15 +2867,15 @@
         <v>2024</v>
       </c>
       <c r="S55" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -2889,16 +2885,16 @@
       </c>
       <c r="G56" s="8"/>
       <c r="H56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N56" s="8">
         <v>-5.4</v>
@@ -2910,15 +2906,15 @@
         <v>2016</v>
       </c>
       <c r="S56" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -2926,16 +2922,16 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N57" s="8">
         <v>-15.6</v>
@@ -2947,15 +2943,15 @@
         <v>2019</v>
       </c>
       <c r="S57" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -2963,16 +2959,16 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N58" s="8">
         <v>-20</v>
@@ -2984,15 +2980,15 @@
         <v>2018</v>
       </c>
       <c r="S58" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -3000,13 +2996,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="I59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N59" s="8">
         <v>-13.8</v>
@@ -3018,15 +3014,15 @@
         <v>2014</v>
       </c>
       <c r="S59" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -3034,13 +3030,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="I60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N60" s="8">
         <v>-17.100000000000001</v>
@@ -3052,15 +3048,15 @@
         <v>2011</v>
       </c>
       <c r="S60" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -3068,13 +3064,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="I61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N61" s="8">
         <v>-13.8</v>
@@ -3086,15 +3082,15 @@
         <v>2003</v>
       </c>
       <c r="S61" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -3102,13 +3098,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="I62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N62" s="8">
         <v>-14.1</v>
@@ -3121,12 +3117,12 @@
       </c>
       <c r="S62" s="9"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -3134,13 +3130,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="I63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N63" s="8">
         <v>-15.8</v>
@@ -3152,15 +3148,15 @@
         <v>2001</v>
       </c>
       <c r="S63" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -3168,13 +3164,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="I64" t="s">
+        <v>65</v>
+      </c>
+      <c r="J64" t="s">
         <v>66</v>
       </c>
-      <c r="J64" t="s">
-        <v>67</v>
-      </c>
       <c r="M64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N64" s="8">
         <v>0.4</v>
@@ -3186,15 +3182,15 @@
         <v>2009</v>
       </c>
       <c r="S64" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -3202,13 +3198,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="I65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J65" t="s">
         <v>66</v>
       </c>
-      <c r="J65" t="s">
-        <v>67</v>
-      </c>
       <c r="M65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N65" s="8">
         <v>-7.1</v>
@@ -3220,15 +3216,15 @@
         <v>2009</v>
       </c>
       <c r="S65" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -3236,13 +3232,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="I66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J66" t="s">
         <v>66</v>
       </c>
-      <c r="J66" t="s">
-        <v>67</v>
-      </c>
       <c r="M66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N66" s="8">
         <v>-13.8</v>
@@ -3254,15 +3250,15 @@
         <v>2009</v>
       </c>
       <c r="S66" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -3270,16 +3266,16 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N67" s="8">
         <v>-18</v>
@@ -3291,15 +3287,15 @@
         <v>2013</v>
       </c>
       <c r="S67" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3309,16 +3305,16 @@
       </c>
       <c r="G68" s="8"/>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N68" s="8">
         <v>-5.9</v>
@@ -3327,33 +3323,33 @@
         <v>-40.1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
         <v>105</v>
       </c>
-      <c r="C69" t="b">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>106</v>
-      </c>
       <c r="H69" t="s">
+        <v>117</v>
+      </c>
+      <c r="I69" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" t="s">
+        <v>64</v>
+      </c>
+      <c r="K69">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M69" t="s">
         <v>118</v>
-      </c>
-      <c r="I69" t="s">
-        <v>65</v>
-      </c>
-      <c r="J69" t="s">
-        <v>65</v>
-      </c>
-      <c r="K69">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M69" t="s">
-        <v>119</v>
       </c>
       <c r="Q69" s="8">
         <v>-13.137760000000002</v>
@@ -3362,36 +3358,36 @@
         <v>44950</v>
       </c>
       <c r="S69" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
         <v>105</v>
       </c>
-      <c r="C70" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>106</v>
-      </c>
       <c r="H70" t="s">
+        <v>117</v>
+      </c>
+      <c r="I70" t="s">
+        <v>64</v>
+      </c>
+      <c r="J70" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M70" t="s">
         <v>118</v>
-      </c>
-      <c r="I70" t="s">
-        <v>65</v>
-      </c>
-      <c r="J70" t="s">
-        <v>65</v>
-      </c>
-      <c r="K70">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M70" t="s">
-        <v>119</v>
       </c>
       <c r="Q70" s="8">
         <v>-10.878400000000001</v>
@@ -3400,36 +3396,36 @@
         <v>44950</v>
       </c>
       <c r="S70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
         <v>105</v>
       </c>
-      <c r="C71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>106</v>
-      </c>
       <c r="H71" t="s">
+        <v>117</v>
+      </c>
+      <c r="I71" t="s">
+        <v>64</v>
+      </c>
+      <c r="J71" t="s">
+        <v>64</v>
+      </c>
+      <c r="K71">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M71" t="s">
         <v>118</v>
-      </c>
-      <c r="I71" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" t="s">
-        <v>65</v>
-      </c>
-      <c r="K71">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M71" t="s">
-        <v>119</v>
       </c>
       <c r="Q71" s="8">
         <v>-10.878400000000001</v>
@@ -3438,36 +3434,36 @@
         <v>44950</v>
       </c>
       <c r="S71" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
         <v>105</v>
       </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>106</v>
-      </c>
       <c r="H72" t="s">
+        <v>117</v>
+      </c>
+      <c r="I72" t="s">
+        <v>64</v>
+      </c>
+      <c r="J72" t="s">
+        <v>64</v>
+      </c>
+      <c r="K72">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M72" t="s">
         <v>118</v>
-      </c>
-      <c r="I72" t="s">
-        <v>65</v>
-      </c>
-      <c r="J72" t="s">
-        <v>65</v>
-      </c>
-      <c r="K72">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M72" t="s">
-        <v>119</v>
       </c>
       <c r="Q72" s="8">
         <v>-10.878400000000001</v>
@@ -3476,36 +3472,36 @@
         <v>44950</v>
       </c>
       <c r="S72" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
         <v>105</v>
       </c>
-      <c r="C73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="s">
-        <v>106</v>
-      </c>
       <c r="H73" t="s">
+        <v>117</v>
+      </c>
+      <c r="I73" t="s">
+        <v>64</v>
+      </c>
+      <c r="J73" t="s">
+        <v>64</v>
+      </c>
+      <c r="K73">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M73" t="s">
         <v>118</v>
-      </c>
-      <c r="I73" t="s">
-        <v>65</v>
-      </c>
-      <c r="J73" t="s">
-        <v>65</v>
-      </c>
-      <c r="K73">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M73" t="s">
-        <v>119</v>
       </c>
       <c r="Q73" s="8">
         <v>-10.878400000000001</v>
@@ -3514,36 +3510,36 @@
         <v>44950</v>
       </c>
       <c r="S73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
         <v>105</v>
       </c>
-      <c r="C74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>106</v>
-      </c>
       <c r="H74" t="s">
+        <v>117</v>
+      </c>
+      <c r="I74" t="s">
+        <v>64</v>
+      </c>
+      <c r="J74" t="s">
+        <v>64</v>
+      </c>
+      <c r="K74">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M74" t="s">
         <v>118</v>
-      </c>
-      <c r="I74" t="s">
-        <v>65</v>
-      </c>
-      <c r="J74" t="s">
-        <v>65</v>
-      </c>
-      <c r="K74">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M74" t="s">
-        <v>119</v>
       </c>
       <c r="Q74" s="8">
         <v>-4.0166399999999998</v>
@@ -3552,36 +3548,36 @@
         <v>44950</v>
       </c>
       <c r="S74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
         <v>105</v>
       </c>
-      <c r="C75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>106</v>
-      </c>
       <c r="H75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I75" t="s">
+        <v>64</v>
+      </c>
+      <c r="J75" t="s">
+        <v>64</v>
+      </c>
+      <c r="K75">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M75" t="s">
         <v>118</v>
-      </c>
-      <c r="I75" t="s">
-        <v>65</v>
-      </c>
-      <c r="J75" t="s">
-        <v>65</v>
-      </c>
-      <c r="K75">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M75" t="s">
-        <v>119</v>
       </c>
       <c r="Q75" s="8">
         <v>-1.7154400000000001</v>
@@ -3590,36 +3586,36 @@
         <v>44950</v>
       </c>
       <c r="S75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
         <v>105</v>
       </c>
-      <c r="C76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>106</v>
-      </c>
       <c r="H76" t="s">
+        <v>117</v>
+      </c>
+      <c r="I76" t="s">
+        <v>64</v>
+      </c>
+      <c r="J76" t="s">
+        <v>64</v>
+      </c>
+      <c r="K76">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M76" t="s">
         <v>118</v>
-      </c>
-      <c r="I76" t="s">
-        <v>65</v>
-      </c>
-      <c r="J76" t="s">
-        <v>65</v>
-      </c>
-      <c r="K76">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M76" t="s">
-        <v>119</v>
       </c>
       <c r="Q76" s="8">
         <v>-0.66944000000000004</v>
@@ -3628,36 +3624,36 @@
         <v>44950</v>
       </c>
       <c r="S76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
         <v>105</v>
       </c>
-      <c r="C77" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>106</v>
-      </c>
       <c r="H77" t="s">
+        <v>117</v>
+      </c>
+      <c r="I77" t="s">
+        <v>64</v>
+      </c>
+      <c r="J77" t="s">
+        <v>64</v>
+      </c>
+      <c r="K77">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M77" t="s">
         <v>118</v>
-      </c>
-      <c r="I77" t="s">
-        <v>65</v>
-      </c>
-      <c r="J77" t="s">
-        <v>65</v>
-      </c>
-      <c r="K77">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M77" t="s">
-        <v>119</v>
       </c>
       <c r="Q77" s="8">
         <v>4.1840000000000002E-2</v>
@@ -3666,36 +3662,36 @@
         <v>44950</v>
       </c>
       <c r="S77" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
         <v>105</v>
       </c>
-      <c r="C78" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" t="s">
-        <v>106</v>
-      </c>
       <c r="H78" t="s">
+        <v>117</v>
+      </c>
+      <c r="I78" t="s">
+        <v>64</v>
+      </c>
+      <c r="J78" t="s">
+        <v>64</v>
+      </c>
+      <c r="K78">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M78" t="s">
         <v>118</v>
-      </c>
-      <c r="I78" t="s">
-        <v>65</v>
-      </c>
-      <c r="J78" t="s">
-        <v>65</v>
-      </c>
-      <c r="K78">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M78" t="s">
-        <v>119</v>
       </c>
       <c r="Q78" s="8">
         <v>4.1840000000000002E-2</v>
@@ -3704,36 +3700,36 @@
         <v>44950</v>
       </c>
       <c r="S78" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
         <v>105</v>
       </c>
-      <c r="C79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" t="s">
-        <v>106</v>
-      </c>
       <c r="H79" t="s">
+        <v>117</v>
+      </c>
+      <c r="I79" t="s">
+        <v>64</v>
+      </c>
+      <c r="J79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K79">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M79" t="s">
         <v>118</v>
-      </c>
-      <c r="I79" t="s">
-        <v>65</v>
-      </c>
-      <c r="J79" t="s">
-        <v>65</v>
-      </c>
-      <c r="K79">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M79" t="s">
-        <v>119</v>
       </c>
       <c r="Q79" s="8">
         <v>1.50624</v>
@@ -3742,36 +3738,36 @@
         <v>44950</v>
       </c>
       <c r="S79" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
         <v>105</v>
       </c>
-      <c r="C80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>106</v>
-      </c>
       <c r="H80" t="s">
+        <v>117</v>
+      </c>
+      <c r="I80" t="s">
+        <v>64</v>
+      </c>
+      <c r="J80" t="s">
+        <v>64</v>
+      </c>
+      <c r="K80">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M80" t="s">
         <v>118</v>
-      </c>
-      <c r="I80" t="s">
-        <v>65</v>
-      </c>
-      <c r="J80" t="s">
-        <v>65</v>
-      </c>
-      <c r="K80">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M80" t="s">
-        <v>119</v>
       </c>
       <c r="Q80" s="8">
         <v>1.50624</v>
@@ -3780,36 +3776,36 @@
         <v>44950</v>
       </c>
       <c r="S80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
         <v>105</v>
       </c>
-      <c r="C81" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>106</v>
-      </c>
       <c r="H81" t="s">
+        <v>117</v>
+      </c>
+      <c r="I81" t="s">
+        <v>64</v>
+      </c>
+      <c r="J81" t="s">
+        <v>64</v>
+      </c>
+      <c r="K81">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M81" t="s">
         <v>118</v>
-      </c>
-      <c r="I81" t="s">
-        <v>65</v>
-      </c>
-      <c r="J81" t="s">
-        <v>65</v>
-      </c>
-      <c r="K81">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M81" t="s">
-        <v>119</v>
       </c>
       <c r="Q81" s="8">
         <v>2.2175200000000004</v>
@@ -3818,36 +3814,36 @@
         <v>44950</v>
       </c>
       <c r="S81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
         <v>105</v>
       </c>
-      <c r="C82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>106</v>
-      </c>
       <c r="H82" t="s">
+        <v>117</v>
+      </c>
+      <c r="I82" t="s">
+        <v>64</v>
+      </c>
+      <c r="J82" t="s">
+        <v>64</v>
+      </c>
+      <c r="K82">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M82" t="s">
         <v>118</v>
-      </c>
-      <c r="I82" t="s">
-        <v>65</v>
-      </c>
-      <c r="J82" t="s">
-        <v>65</v>
-      </c>
-      <c r="K82">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M82" t="s">
-        <v>119</v>
       </c>
       <c r="Q82" s="8">
         <v>4.8115999999999994</v>
@@ -3856,36 +3852,36 @@
         <v>44950</v>
       </c>
       <c r="S82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
         <v>105</v>
       </c>
-      <c r="C83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>106</v>
-      </c>
       <c r="H83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I83" t="s">
+        <v>64</v>
+      </c>
+      <c r="J83" t="s">
+        <v>64</v>
+      </c>
+      <c r="K83">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M83" t="s">
         <v>118</v>
-      </c>
-      <c r="I83" t="s">
-        <v>65</v>
-      </c>
-      <c r="J83" t="s">
-        <v>65</v>
-      </c>
-      <c r="K83">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M83" t="s">
-        <v>119</v>
       </c>
       <c r="Q83" s="8">
         <v>7.9914399999999999</v>
@@ -3894,36 +3890,36 @@
         <v>44950</v>
       </c>
       <c r="S83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
         <v>105</v>
       </c>
-      <c r="C84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>106</v>
-      </c>
       <c r="H84" t="s">
+        <v>117</v>
+      </c>
+      <c r="I84" t="s">
+        <v>64</v>
+      </c>
+      <c r="J84" t="s">
+        <v>64</v>
+      </c>
+      <c r="K84">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M84" t="s">
         <v>118</v>
-      </c>
-      <c r="I84" t="s">
-        <v>65</v>
-      </c>
-      <c r="J84" t="s">
-        <v>65</v>
-      </c>
-      <c r="K84">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M84" t="s">
-        <v>119</v>
       </c>
       <c r="Q84" s="8">
         <v>9.2466400000000011</v>
@@ -3932,36 +3928,36 @@
         <v>44950</v>
       </c>
       <c r="S84" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>105</v>
+      </c>
+      <c r="H85" t="s">
         <v>117</v>
       </c>
-      <c r="B85" t="s">
-        <v>105</v>
-      </c>
-      <c r="C85" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>106</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
+        <v>64</v>
+      </c>
+      <c r="J85" t="s">
+        <v>64</v>
+      </c>
+      <c r="K85">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M85" t="s">
         <v>118</v>
-      </c>
-      <c r="I85" t="s">
-        <v>65</v>
-      </c>
-      <c r="J85" t="s">
-        <v>65</v>
-      </c>
-      <c r="K85">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M85" t="s">
-        <v>119</v>
       </c>
       <c r="Q85" s="8">
         <v>10.167120000000001</v>
@@ -3970,36 +3966,36 @@
         <v>44950</v>
       </c>
       <c r="S85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
+        <v>104</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
         <v>105</v>
       </c>
-      <c r="C86" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>106</v>
-      </c>
       <c r="H86" t="s">
+        <v>117</v>
+      </c>
+      <c r="I86" t="s">
+        <v>64</v>
+      </c>
+      <c r="J86" t="s">
+        <v>64</v>
+      </c>
+      <c r="K86">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="M86" t="s">
         <v>118</v>
-      </c>
-      <c r="I86" t="s">
-        <v>65</v>
-      </c>
-      <c r="J86" t="s">
-        <v>65</v>
-      </c>
-      <c r="K86">
-        <v>298.14999999999998</v>
-      </c>
-      <c r="M86" t="s">
-        <v>119</v>
       </c>
       <c r="Q86" s="8">
         <v>10.54368</v>
@@ -4008,7 +4004,7 @@
         <v>44950</v>
       </c>
       <c r="S86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4018,6 +4014,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
@@ -4026,15 +4031,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4267,6 +4263,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB02FF4E-10B3-4B92-B10C-B2349DBBFE67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -4279,14 +4283,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/input_experimental.xlsx
+++ b/data/input_experimental.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/cromain_ic_ac_uk/Documents/01-Research/Data/TROPIC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexganose/dev/src/tropic/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1927" documentId="11_47C5866CB8C9003B98FC07C2E17A290884E2B735" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3222A74A-49CE-4E52-B880-B76F90CF2BDB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34441FCD-1661-7F4F-9726-03778239CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$AL$94</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="309">
   <si>
     <t>monomer_smiles</t>
   </si>
@@ -237,9 +236,6 @@
     <t>vant_hoff</t>
   </si>
   <si>
-    <t>DSC</t>
-  </si>
-  <si>
     <t>calorimetry</t>
   </si>
   <si>
@@ -372,51 +368,24 @@
     <t>CD3OD</t>
   </si>
   <si>
-    <t>NMR</t>
-  </si>
-  <si>
     <t>10.1021/acs.macromol.2c01141</t>
   </si>
   <si>
-    <t>co-solvent</t>
-  </si>
-  <si>
     <t>medium</t>
   </si>
   <si>
-    <t>solvent/co-solvent</t>
-  </si>
-  <si>
     <t>7/3</t>
   </si>
   <si>
     <t>DCM</t>
   </si>
   <si>
-    <t>data_file</t>
-  </si>
-  <si>
-    <t>Soum_2002_dVL</t>
-  </si>
-  <si>
-    <t>Soum_2002_eCL</t>
-  </si>
-  <si>
-    <t>Soum_2002_dCL</t>
-  </si>
-  <si>
-    <t>Flag</t>
-  </si>
-  <si>
     <t>values</t>
   </si>
   <si>
     <t>CC1CC(=O)O1</t>
   </si>
   <si>
-    <t>Soum_2002_bBL</t>
-  </si>
-  <si>
     <t>10.1021/acs.macromol.0c00787</t>
   </si>
   <si>
@@ -432,9 +401,6 @@
     <t>4/1</t>
   </si>
   <si>
-    <t>Hoye_2020_KVL</t>
-  </si>
-  <si>
     <t>bulk</t>
   </si>
   <si>
@@ -450,18 +416,9 @@
     <t>O=C1CCCCO1</t>
   </si>
   <si>
-    <t>delta_S_incert</t>
-  </si>
-  <si>
-    <t>delta_H_incert</t>
-  </si>
-  <si>
     <t>assumed l-l and not l-s as reported</t>
   </si>
   <si>
-    <t>Dubois_2003_DX_bulk</t>
-  </si>
-  <si>
     <t>reported_ceiling_temperature</t>
   </si>
   <si>
@@ -495,21 +452,6 @@
     <t>diluted conditions - low initial concentrations - unit updated</t>
   </si>
   <si>
-    <t>Endo_1998_M1</t>
-  </si>
-  <si>
-    <t>Endo_1998_M2</t>
-  </si>
-  <si>
-    <t>Endo_1998_M3</t>
-  </si>
-  <si>
-    <t>Endo_1998_M4</t>
-  </si>
-  <si>
-    <t>Endo_1998_M5</t>
-  </si>
-  <si>
     <t>O=C1CCCCN1</t>
   </si>
   <si>
@@ -519,9 +461,6 @@
     <t>O=C1CCCCCO1</t>
   </si>
   <si>
-    <t>Penczek_Macomolecules_1990_Lactide_dioxane</t>
-  </si>
-  <si>
     <t>calculated using group additivity procedures</t>
   </si>
   <si>
@@ -549,45 +488,9 @@
     <t>O=C1COC(=O)CO1</t>
   </si>
   <si>
-    <t>Rieger_Macromolecules_2025_nopL</t>
-  </si>
-  <si>
-    <t>Tolman_Macomolecules_2005_menthide.jpg</t>
-  </si>
-  <si>
-    <t>Lu_JACS_2019_PTL.jpg</t>
-  </si>
-  <si>
     <t>10.1021/ma000457t</t>
   </si>
   <si>
-    <t>Chen_NatCHem_2015_gBL</t>
-  </si>
-  <si>
-    <t>Xu_NatCommun_2024_bMeVL</t>
-  </si>
-  <si>
-    <t>Xu_NatCommun_2024_dMeVL</t>
-  </si>
-  <si>
-    <t>Xu_NatCommun_2024_aMeVL</t>
-  </si>
-  <si>
-    <t>Xu_NatCommun_2024_aEtVL</t>
-  </si>
-  <si>
-    <t>Xu_NatCommun_2024_aPrVL</t>
-  </si>
-  <si>
-    <t>Xu_NatCommun_2024_aBuVL</t>
-  </si>
-  <si>
-    <t>Xu_NatCommun_2024_aPenVL</t>
-  </si>
-  <si>
-    <t>Xu_NatCommun_2024_aHexVL</t>
-  </si>
-  <si>
     <t>toluene_d8</t>
   </si>
   <si>
@@ -678,30 +581,6 @@
     <t>10.1021/acs.macromol.6b00211</t>
   </si>
   <si>
-    <t>10.1021/acs.macromol.6b00212</t>
-  </si>
-  <si>
-    <t>10.1021/acs.macromol.6b00213</t>
-  </si>
-  <si>
-    <t>10.1021/acs.macromol.6b00214</t>
-  </si>
-  <si>
-    <t>10.1021/acs.macromol.6b00215</t>
-  </si>
-  <si>
-    <t>10.1021/acs.macromol.6b00216</t>
-  </si>
-  <si>
-    <t>10.1021/acs.macromol.6b00217</t>
-  </si>
-  <si>
-    <t>10.1021/acs.macromol.6b00218</t>
-  </si>
-  <si>
-    <t>10.1021/acs.macromol.6b00219</t>
-  </si>
-  <si>
     <t>10.1016/0032-3950(79)90164-3</t>
   </si>
   <si>
@@ -717,9 +596,6 @@
     <t>10.1021/jacs.6b07974</t>
   </si>
   <si>
-    <t>Chen_JACS_MBL</t>
-  </si>
-  <si>
     <t>10.1002/anie.202109767</t>
   </si>
   <si>
@@ -747,18 +623,12 @@
     <t>C=C1CCCOC1=O</t>
   </si>
   <si>
-    <t>Li_ACIE_2022_MVL</t>
-  </si>
-  <si>
     <t>C=C1CCOC1=O</t>
   </si>
   <si>
     <t>O=C1NC2CCCC1C2</t>
   </si>
   <si>
-    <t>Chen_JACS_2022_Nylon</t>
-  </si>
-  <si>
     <t>NMP</t>
   </si>
   <si>
@@ -777,9 +647,6 @@
     <t>nmp</t>
   </si>
   <si>
-    <t>Tao_ACIE_2024</t>
-  </si>
-  <si>
     <t>trimethylbenzene</t>
   </si>
   <si>
@@ -792,9 +659,6 @@
     <t>C[C@@H]2CC(=O)O[C@@H]1CCCC[C@H]1O2</t>
   </si>
   <si>
-    <t>Ren_MACS_2022_dCTC</t>
-  </si>
-  <si>
     <t>sign of entropy suspected wrong, updated</t>
   </si>
   <si>
@@ -813,15 +677,6 @@
     <t>10.1039/D2CC01322C</t>
   </si>
   <si>
-    <t>Buchard_PolymChem_2022_THF</t>
-  </si>
-  <si>
-    <t>Buchard_PolymChem_2022_DCE</t>
-  </si>
-  <si>
-    <t>Buchard_PolymChem_2023_DCE</t>
-  </si>
-  <si>
     <t>10.1016/j.chempr.2020.06.003</t>
   </si>
   <si>
@@ -834,21 +689,12 @@
     <t>O=C1CCCCCCCC/C=C/CCCCCO1</t>
   </si>
   <si>
-    <t>0.1021/jacs.4c12678</t>
-  </si>
-  <si>
     <t>O=C1OC[C@H]2C[C@@H]3C=C[C@]12O3</t>
   </si>
   <si>
     <t>O=C1OC[C@H]2C[C@@H]3CC[C@]12O3</t>
   </si>
   <si>
-    <t>Thevenon_JACS_2024_M1</t>
-  </si>
-  <si>
-    <t>Thevenon_JACS_2024_M1_H2</t>
-  </si>
-  <si>
     <t>10.1038/s41467-023-38916-5</t>
   </si>
   <si>
@@ -903,39 +749,6 @@
     <t>toluene_d12</t>
   </si>
   <si>
-    <t>Cai_Zhu_2023_NatCommun_M1</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M2</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M3</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M4</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M5</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M6</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M8</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M9</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M10</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M11</t>
-  </si>
-  <si>
-    <t>Cai_Zhu_2023_NatCommun_M12</t>
-  </si>
-  <si>
     <t>O=C1CCC2(CCO1)OCCO2</t>
   </si>
   <si>
@@ -960,44 +773,218 @@
     <t>CC1OCCOC1=O</t>
   </si>
   <si>
-    <t>Jhurry_PolymInt_2010</t>
-  </si>
-  <si>
     <t>Cc3cn([C@H]2C[C@H]1OC(=O)OC[C@H]1O2)c(=O)n(C)c3=O</t>
   </si>
   <si>
-    <t xml:space="preserve">ROP </t>
-  </si>
-  <si>
     <t>CC1OCCC(=O)O1</t>
   </si>
   <si>
     <t>10.1021/ja503830c</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>cal</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>vanthoff_file</t>
+  </si>
+  <si>
+    <t>solvent/cosolvent</t>
+  </si>
+  <si>
+    <t>Soum_2002_bBL.xlsx</t>
+  </si>
+  <si>
+    <t>Soum_2002_dCL.xlsx</t>
+  </si>
+  <si>
+    <t>Soum_2002_dVL.xlsx</t>
+  </si>
+  <si>
+    <t>Soum_2002_eCL.xlsx</t>
+  </si>
+  <si>
+    <t>Hoye_2020_KVL.xlsx</t>
+  </si>
+  <si>
+    <t>Rieger_Macromolecules_2025_nopL.xlsx</t>
+  </si>
+  <si>
+    <t>Penczek_Macomolecules_1990_Lactide_dioxane.xlsx</t>
+  </si>
+  <si>
+    <t>Dubois_2003_DX_bulk.xlsx</t>
+  </si>
+  <si>
+    <t>Endo_1998_M2.xlsx</t>
+  </si>
+  <si>
+    <t>Endo_1998_M4.xlsx</t>
+  </si>
+  <si>
+    <t>Endo_1998_M3.xlsx</t>
+  </si>
+  <si>
+    <t>Endo_1998_M5.xlsx</t>
+  </si>
+  <si>
+    <t>Endo_1998_M1.xlsx</t>
+  </si>
+  <si>
+    <t>Chen_NatCHem_2015_gBL.xlsx</t>
+  </si>
+  <si>
+    <t>Xu_NatCommun_2024_dMeVL.xlsx</t>
+  </si>
+  <si>
+    <t>Xu_NatCommun_2024_bMeVL.xlsx</t>
+  </si>
+  <si>
+    <t>Xu_NatCommun_2024_aMeVL.xlsx</t>
+  </si>
+  <si>
+    <t>Xu_NatCommun_2024_aEtVL.xlsx</t>
+  </si>
+  <si>
+    <t>Xu_NatCommun_2024_aPrVL.xlsx</t>
+  </si>
+  <si>
+    <t>Xu_NatCommun_2024_aBuVL.xlsx</t>
+  </si>
+  <si>
+    <t>Xu_NatCommun_2024_aPenVL.xlsx</t>
+  </si>
+  <si>
+    <t>Xu_NatCommun_2024_aHexVL.xlsx</t>
+  </si>
+  <si>
+    <t>cosolvent</t>
+  </si>
+  <si>
+    <t>delta_h_std</t>
+  </si>
+  <si>
+    <t>delta_s_std</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.4c12678</t>
+  </si>
+  <si>
+    <t>O=C2CN(c1ccccc1)CCO2</t>
+  </si>
+  <si>
+    <t>O=C2CN(Cc1ccccc1)CCO2</t>
+  </si>
+  <si>
+    <t>CC(C)(C)OC(=O)N1CCOC(=O)C1</t>
+  </si>
+  <si>
+    <t>10.1021/acs.macromol.4c02526</t>
+  </si>
+  <si>
+    <t>Engler_Gutekunst_075</t>
+  </si>
+  <si>
+    <t>Engler_Gutekunst_10</t>
+  </si>
+  <si>
+    <t>Engler_Gutekunst_15</t>
+  </si>
+  <si>
+    <t>Engler_Gutekunst_20</t>
+  </si>
+  <si>
+    <t>10.1021/acs.macromol.4c01469</t>
+  </si>
+  <si>
+    <t>Chen_JACS_MBL.xlsx</t>
+  </si>
+  <si>
+    <t>Chen_JACS_2022_Nylon.xlsx</t>
+  </si>
+  <si>
+    <t>Li_ACIE_2022_MVL.xlsx</t>
+  </si>
+  <si>
+    <t>Tao_ACIE_2024.xlsx</t>
+  </si>
+  <si>
+    <t>Ren_MACS_2022_dCTC.xlsx</t>
+  </si>
+  <si>
+    <t>Buchard_PolymChem_2022_DCE.xlsx</t>
+  </si>
+  <si>
+    <t>Buchard_PolymChem_2022_THF.xlsx</t>
+  </si>
+  <si>
+    <t>Buchard_PolymChem_2023_DCE.xlsx</t>
+  </si>
+  <si>
+    <t>Thevenon_JACS_2024_M1.xlsx</t>
+  </si>
+  <si>
+    <t>Thevenon_JACS_2024_M1_H2.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M1.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M2.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M3.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M4.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M5.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M6.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M8.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M9.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M10.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M11.xlsx</t>
+  </si>
+  <si>
+    <t>Cai_Zhu_2023_NatCommun_M12.xlsx</t>
+  </si>
+  <si>
+    <t>Jhurry_PolymInt_2010.xlsx</t>
+  </si>
+  <si>
+    <t>dsc</t>
+  </si>
+  <si>
+    <t>nmr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1012,14 +999,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1069,7 +1048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1077,104 +1056,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F0F4C264-A2C7-7B41-80D9-0451A2F6A2F5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1457,176 +1436,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL166"/>
+  <dimension ref="A1:AL172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="115" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="U1" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="X161" sqref="X161"/>
+      <selection pane="bottomLeft" activeCell="Y167" sqref="Y167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="61" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="5" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="5" customWidth="1"/>
     <col min="9" max="9" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="36.5" style="5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="71.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="26.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="30.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="28.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" style="5" customWidth="1"/>
-    <col min="31" max="31" width="18.28515625" style="5" customWidth="1"/>
-    <col min="32" max="32" width="50.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="71.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5" style="5" customWidth="1"/>
+    <col min="26" max="26" width="20.6640625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="26.5" style="5" customWidth="1"/>
+    <col min="28" max="28" width="30.5" style="5" customWidth="1"/>
+    <col min="29" max="29" width="28.33203125" style="5" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" style="5" customWidth="1"/>
+    <col min="31" max="31" width="18.33203125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="50.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="5"/>
+    <col min="35" max="35" width="17.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.1640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="11" t="s">
+      <c r="W1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF1" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>59</v>
@@ -1642,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>61</v>
@@ -1671,13 +1650,13 @@
         <v>2002</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1695,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>61</v>
@@ -1724,75 +1703,75 @@
         <v>2002</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="B4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
         <v>0.35</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="25">
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="20">
         <v>-8.4</v>
       </c>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25">
+      <c r="R4" s="20"/>
+      <c r="S4" s="20">
         <v>-14.7</v>
       </c>
-      <c r="T4" s="25"/>
-      <c r="W4" s="9">
+      <c r="T4" s="20"/>
+      <c r="W4" s="8">
         <v>2002</v>
       </c>
-      <c r="X4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -1810,13 +1789,13 @@
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>61</v>
@@ -1839,15 +1818,15 @@
         <v>2002</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>59</v>
@@ -1860,7 +1839,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1869,7 +1848,7 @@
         <v>62</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1890,7 +1869,7 @@
         <v>2009</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -1898,7 +1877,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -1909,9 +1888,9 @@
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
     </row>
-    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>59</v>
@@ -1922,17 +1901,17 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="4">
         <v>-28.8</v>
@@ -1946,15 +1925,15 @@
         <v>2009</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>59</v>
@@ -1965,14 +1944,14 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>64</v>
@@ -1989,15 +1968,15 @@
         <v>2009</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>59</v>
@@ -2008,17 +1987,17 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="4">
         <v>-27.4</v>
@@ -2032,13 +2011,13 @@
         <v>2009</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2051,14 +2030,14 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Q10" s="4">
         <v>0.4</v>
@@ -2072,15 +2051,15 @@
         <v>2009</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>59</v>
@@ -2091,7 +2070,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="1" t="s">
@@ -2112,13 +2091,13 @@
         <v>2009</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2131,14 +2110,14 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="4">
         <v>-82.3</v>
@@ -2152,13 +2131,13 @@
         <v>2009</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -2176,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="1" t="s">
@@ -2200,10 +2179,10 @@
         <v>2025</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -2221,7 +2200,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="1" t="s">
@@ -2245,12 +2224,12 @@
         <v>2025</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>59</v>
@@ -2266,7 +2245,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="1" t="s">
@@ -2290,12 +2269,12 @@
         <v>2025</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>60</v>
@@ -2311,7 +2290,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="1" t="s">
@@ -2335,12 +2314,12 @@
         <v>2025</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>59</v>
@@ -2356,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="1" t="s">
@@ -2380,12 +2359,12 @@
         <v>2025</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>60</v>
@@ -2401,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="1" t="s">
@@ -2425,12 +2404,12 @@
         <v>2025</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>59</v>
@@ -2441,7 +2420,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="1" t="s">
@@ -2454,7 +2433,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="4">
         <v>-20.9</v>
@@ -2468,12 +2447,12 @@
         <v>1980</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>59</v>
@@ -2484,7 +2463,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="1" t="s">
@@ -2497,7 +2476,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="4">
         <v>-34.5</v>
@@ -2513,13 +2492,13 @@
         <v>1980</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -2530,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="1" t="s">
@@ -2543,7 +2522,7 @@
         <v>298</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="4">
         <v>-74.8</v>
@@ -2554,10 +2533,10 @@
       </c>
       <c r="T21" s="4"/>
       <c r="X21" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -2568,20 +2547,20 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N22" s="1">
         <v>298</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="4">
         <v>-82.3</v>
@@ -2592,12 +2571,12 @@
       </c>
       <c r="T22" s="4"/>
       <c r="X22" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -2608,20 +2587,20 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="N23" s="1">
         <v>100</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="4">
         <v>10.82</v>
@@ -2635,12 +2614,12 @@
         <v>1982</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>59</v>
@@ -2651,20 +2630,20 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="N24" s="1">
         <v>200</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="4">
         <v>10.82</v>
@@ -2678,12 +2657,12 @@
         <v>1982</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>59</v>
@@ -2694,11 +2673,11 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>63</v>
@@ -2707,7 +2686,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="4">
         <v>-8.6999999999999993</v>
@@ -2721,15 +2700,15 @@
         <v>1982</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>59</v>
@@ -2740,11 +2719,11 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>63</v>
@@ -2753,7 +2732,7 @@
         <v>397</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q26" s="4">
         <v>-2.1</v>
@@ -2767,13 +2746,13 @@
         <v>1982</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -2784,11 +2763,11 @@
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>63</v>
@@ -2797,7 +2776,7 @@
         <v>298</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q27" s="4">
         <v>10</v>
@@ -2811,10 +2790,10 @@
         <v>1983</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -2825,20 +2804,20 @@
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N28" s="1">
         <v>298</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q28" s="4">
         <v>-39</v>
@@ -2852,10 +2831,10 @@
         <v>1983</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2866,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="1" t="s">
@@ -2879,7 +2858,7 @@
         <v>370</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="4">
         <v>3</v>
@@ -2893,10 +2872,10 @@
         <v>1983</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2909,7 +2888,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="1" t="s">
@@ -2922,7 +2901,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="Q30" s="4">
         <v>-19</v>
@@ -2940,86 +2919,86 @@
         <v>2015</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="26">
-        <v>1</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q31" s="25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q31" s="20">
         <v>-9</v>
       </c>
-      <c r="R31" s="25"/>
-      <c r="S31" s="25">
+      <c r="R31" s="20"/>
+      <c r="S31" s="20">
         <v>-23</v>
       </c>
-      <c r="T31" s="25"/>
-      <c r="W31" s="9">
+      <c r="T31" s="20"/>
+      <c r="W31" s="8">
         <v>2020</v>
       </c>
-      <c r="X31" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD31" s="9" t="s">
+      <c r="X31" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE31" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF31" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AE31" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF31" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H32" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="1" t="s">
@@ -3032,43 +3011,44 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
-      <c r="V32" s="2">
+      <c r="U32" s="2">
         <v>-10.878400000000001</v>
       </c>
-      <c r="W32" s="8">
-        <v>44950</v>
+      <c r="V32" s="2"/>
+      <c r="W32" s="1">
+        <v>2023</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="1" t="s">
@@ -3081,43 +3061,44 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
-      <c r="V33" s="2">
+      <c r="U33" s="2">
         <v>-13.137760000000002</v>
       </c>
-      <c r="W33" s="8">
-        <v>44950</v>
+      <c r="V33" s="2"/>
+      <c r="W33" s="1">
+        <v>2023</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="1" t="s">
@@ -3130,43 +3111,44 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
-      <c r="V34" s="2">
+      <c r="U34" s="2">
         <v>-10.878400000000001</v>
       </c>
-      <c r="W34" s="8">
-        <v>44950</v>
+      <c r="V34" s="2"/>
+      <c r="W34" s="1">
+        <v>2023</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H35" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="1" t="s">
@@ -3179,43 +3161,44 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
-      <c r="V35" s="2">
+      <c r="U35" s="2">
         <v>-10.878400000000001</v>
       </c>
-      <c r="W35" s="8">
-        <v>44950</v>
+      <c r="V35" s="2"/>
+      <c r="W35" s="1">
+        <v>2023</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H36" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="1" t="s">
@@ -3228,40 +3211,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="V36" s="2">
+      <c r="U36" s="2">
         <v>-4.0166399999999998</v>
       </c>
-      <c r="W36" s="8">
-        <v>44950</v>
+      <c r="V36" s="2"/>
+      <c r="W36" s="1">
+        <v>2023</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="1" t="s">
@@ -3274,43 +3258,44 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="V37" s="2">
+      <c r="U37" s="2">
         <v>-10.878400000000001</v>
       </c>
-      <c r="W37" s="8">
-        <v>44950</v>
+      <c r="V37" s="2"/>
+      <c r="W37" s="1">
+        <v>2023</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H38" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="1" t="s">
@@ -3323,40 +3308,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="V38" s="2">
+      <c r="U38" s="2">
         <v>9.2466400000000011</v>
       </c>
-      <c r="W38" s="8">
-        <v>44950</v>
+      <c r="V38" s="2"/>
+      <c r="W38" s="1">
+        <v>2023</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H39" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="1" t="s">
@@ -3369,40 +3355,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-      <c r="V39" s="2">
+      <c r="U39" s="2">
         <v>-0.66944000000000004</v>
       </c>
-      <c r="W39" s="8">
-        <v>44950</v>
+      <c r="V39" s="2"/>
+      <c r="W39" s="1">
+        <v>2023</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="1" t="s">
@@ -3415,40 +3402,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
-      <c r="V40" s="2">
+      <c r="U40" s="2">
         <v>2.2175200000000004</v>
       </c>
-      <c r="W40" s="8">
-        <v>44950</v>
+      <c r="V40" s="2"/>
+      <c r="W40" s="1">
+        <v>2023</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="1" t="s">
@@ -3461,40 +3449,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-      <c r="V41" s="2">
+      <c r="U41" s="2">
         <v>-1.7154400000000001</v>
       </c>
-      <c r="W41" s="8">
-        <v>44950</v>
+      <c r="V41" s="2"/>
+      <c r="W41" s="1">
+        <v>2023</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H42" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="1" t="s">
@@ -3507,40 +3496,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
-      <c r="V42" s="2">
+      <c r="U42" s="2">
         <v>1.50624</v>
       </c>
-      <c r="W42" s="8">
-        <v>44950</v>
+      <c r="V42" s="2"/>
+      <c r="W42" s="1">
+        <v>2023</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="1" t="s">
@@ -3553,40 +3543,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
-      <c r="V43" s="2">
+      <c r="U43" s="2">
         <v>4.1840000000000002E-2</v>
       </c>
-      <c r="W43" s="8">
-        <v>44950</v>
+      <c r="V43" s="2"/>
+      <c r="W43" s="1">
+        <v>2023</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="1" t="s">
@@ -3599,40 +3590,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-      <c r="V44" s="2">
+      <c r="U44" s="2">
         <v>10.54368</v>
       </c>
-      <c r="W44" s="8">
-        <v>44950</v>
+      <c r="V44" s="2"/>
+      <c r="W44" s="1">
+        <v>2023</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="1" t="s">
@@ -3645,40 +3637,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
-      <c r="V45" s="2">
+      <c r="U45" s="2">
         <v>4.1840000000000002E-2</v>
       </c>
-      <c r="W45" s="8">
-        <v>44950</v>
+      <c r="V45" s="2"/>
+      <c r="W45" s="1">
+        <v>2023</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="1" t="s">
@@ -3691,40 +3684,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
-      <c r="V46" s="2">
+      <c r="U46" s="2">
         <v>7.9914399999999999</v>
       </c>
-      <c r="W46" s="8">
-        <v>44950</v>
+      <c r="V46" s="2"/>
+      <c r="W46" s="1">
+        <v>2023</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="1" t="s">
@@ -3737,40 +3731,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
-      <c r="V47" s="2">
+      <c r="U47" s="2">
         <v>1.50624</v>
       </c>
-      <c r="W47" s="8">
-        <v>44950</v>
+      <c r="V47" s="2"/>
+      <c r="W47" s="1">
+        <v>2023</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="H48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="1" t="s">
@@ -3783,40 +3778,41 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
-      <c r="V48" s="2">
+      <c r="U48" s="2">
         <v>4.8115999999999994</v>
       </c>
-      <c r="W48" s="8">
-        <v>44950</v>
+      <c r="V48" s="2"/>
+      <c r="W48" s="1">
+        <v>2023</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="1" t="s">
@@ -3829,25 +3825,26 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
-      <c r="V49" s="2">
+      <c r="U49" s="2">
         <v>10.167120000000001</v>
       </c>
-      <c r="W49" s="8">
-        <v>44950</v>
+      <c r="V49" s="2"/>
+      <c r="W49" s="1">
+        <v>2023</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>59</v>
@@ -3862,7 +3859,7 @@
         <v>4</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="1" t="s">
@@ -3886,12 +3883,12 @@
         <v>2024</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>59</v>
@@ -3906,7 +3903,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="1" t="s">
@@ -3930,12 +3927,12 @@
         <v>2024</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>59</v>
@@ -3950,7 +3947,7 @@
         <v>4</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="1" t="s">
@@ -3974,12 +3971,12 @@
         <v>2024</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>59</v>
@@ -3994,7 +3991,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="1" t="s">
@@ -4018,10 +4015,10 @@
         <v>2024</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>32</v>
       </c>
@@ -4039,7 +4036,7 @@
         <v>4</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="1" t="s">
@@ -4067,15 +4064,15 @@
         <v>2025</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF54" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>59</v>
@@ -4087,7 +4084,7 @@
         <v>9.11</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="1" t="s">
@@ -4115,12 +4112,12 @@
         <v>2016</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>59</v>
@@ -4135,7 +4132,7 @@
         <v>9.11</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -4169,7 +4166,7 @@
         <v>2016</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
@@ -4186,9 +4183,9 @@
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
     </row>
-    <row r="57" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>59</v>
@@ -4203,7 +4200,7 @@
         <v>9.11</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -4237,7 +4234,7 @@
         <v>2016</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
@@ -4254,9 +4251,9 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>59</v>
@@ -4271,7 +4268,7 @@
         <v>8.0299999999999994</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -4305,7 +4302,7 @@
         <v>2016</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
@@ -4322,9 +4319,9 @@
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
     </row>
-    <row r="59" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>59</v>
@@ -4339,7 +4336,7 @@
         <v>6.75</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -4373,7 +4370,7 @@
         <v>2016</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
@@ -4390,9 +4387,9 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
@@ -4404,7 +4401,7 @@
         <v>5.69</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="1" t="s">
@@ -4432,12 +4429,12 @@
         <v>2016</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>59</v>
@@ -4449,7 +4446,7 @@
         <v>5.58</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="1" t="s">
@@ -4477,12 +4474,12 @@
         <v>2016</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>59</v>
@@ -4497,7 +4494,7 @@
         <v>5.26</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -4531,7 +4528,7 @@
         <v>2016</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
@@ -4548,9 +4545,9 @@
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
     </row>
-    <row r="63" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>59</v>
@@ -4562,7 +4559,7 @@
         <v>4.74</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="1" t="s">
@@ -4590,12 +4587,12 @@
         <v>2016</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>59</v>
@@ -4607,7 +4604,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="1" t="s">
@@ -4635,12 +4632,12 @@
         <v>2016</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>59</v>
@@ -4655,7 +4652,7 @@
         <v>4</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K65" s="3"/>
       <c r="P65" s="1" t="s">
@@ -4677,12 +4674,12 @@
         <v>2019</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>59</v>
@@ -4697,7 +4694,7 @@
         <v>4</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K66" s="3"/>
       <c r="L66" s="1" t="s">
@@ -4725,10 +4722,10 @@
         <v>2019</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>31</v>
       </c>
@@ -4742,7 +4739,7 @@
         <v>8.76</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="1" t="s">
@@ -4755,7 +4752,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="Q67" s="4">
         <v>-19.3</v>
@@ -4773,10 +4770,10 @@
         <v>2025</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>29</v>
       </c>
@@ -4790,7 +4787,7 @@
         <v>8.61</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="1" t="s">
@@ -4803,7 +4800,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="Q68" s="4">
         <v>-17.2</v>
@@ -4821,10 +4818,10 @@
         <v>2025</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>30</v>
       </c>
@@ -4838,7 +4835,7 @@
         <v>7.68</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="1" t="s">
@@ -4851,7 +4848,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>65</v>
+        <v>307</v>
       </c>
       <c r="Q69" s="4">
         <v>-25</v>
@@ -4869,12 +4866,12 @@
         <v>2025</v>
       </c>
       <c r="X69" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>59</v>
@@ -4889,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K70" s="3"/>
       <c r="L70" s="1" t="s">
@@ -4915,12 +4912,12 @@
         <v>2022</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>59</v>
@@ -4935,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="1" t="s">
@@ -4959,12 +4956,12 @@
         <v>2022</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>59</v>
@@ -4979,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K72" s="3"/>
       <c r="L72" s="1" t="s">
@@ -5003,12 +5000,12 @@
         <v>2022</v>
       </c>
       <c r="X72" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>59</v>
@@ -5020,7 +5017,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="1" t="s">
@@ -5044,12 +5041,12 @@
         <v>2022</v>
       </c>
       <c r="X73" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>59</v>
@@ -5064,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="1" t="s">
@@ -5088,12 +5085,12 @@
         <v>2022</v>
       </c>
       <c r="X74" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>59</v>
@@ -5108,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="1" t="s">
@@ -5132,10 +5129,10 @@
         <v>2022</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>33</v>
       </c>
@@ -5153,7 +5150,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="1" t="s">
@@ -5181,13 +5178,10 @@
         <v>2005</v>
       </c>
       <c r="X76" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF76" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="77" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5205,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="1" t="s">
@@ -5229,15 +5223,12 @@
         <v>2019</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF77" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>59</v>
@@ -5249,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="1" t="s">
@@ -5277,13 +5268,13 @@
         <v>2004</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>44</v>
       </c>
@@ -5301,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="1" t="s">
@@ -5325,13 +5316,13 @@
         <v>1990</v>
       </c>
       <c r="X79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF79" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>44</v>
       </c>
@@ -5344,7 +5335,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="1" t="s">
@@ -5368,10 +5359,10 @@
         <v>1990</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>55</v>
       </c>
@@ -5384,7 +5375,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="1" t="s">
@@ -5408,10 +5399,10 @@
         <v>2001</v>
       </c>
       <c r="X81" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="82" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
@@ -5426,7 +5417,7 @@
         <v>10.9</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K82" s="3"/>
       <c r="L82" s="1" t="s">
@@ -5454,16 +5445,16 @@
         <v>2003</v>
       </c>
       <c r="X82" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>44</v>
       </c>
@@ -5476,7 +5467,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="1" t="s">
@@ -5504,12 +5495,12 @@
         <v>1997</v>
       </c>
       <c r="X83" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>59</v>
@@ -5525,7 +5516,7 @@
         <v>4</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="1" t="s">
@@ -5549,18 +5540,18 @@
         <v>1998</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF84" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>59</v>
@@ -5576,7 +5567,7 @@
         <v>4</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="1" t="s">
@@ -5600,18 +5591,18 @@
         <v>1998</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>59</v>
@@ -5627,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K86" s="3"/>
       <c r="L86" s="1" t="s">
@@ -5651,18 +5642,18 @@
         <v>1998</v>
       </c>
       <c r="X86" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="87" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>59</v>
@@ -5678,7 +5669,7 @@
         <v>4</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="1" t="s">
@@ -5702,18 +5693,18 @@
         <v>1998</v>
       </c>
       <c r="X87" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AD87" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF87" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>59</v>
@@ -5729,7 +5720,7 @@
         <v>4</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K88" s="3"/>
       <c r="L88" s="1" t="s">
@@ -5753,16 +5744,16 @@
         <v>1998</v>
       </c>
       <c r="X88" s="3" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AF88" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>54</v>
       </c>
@@ -5777,7 +5768,7 @@
         <v>5.6</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="1" t="s">
@@ -5805,10 +5796,10 @@
         <v>2011</v>
       </c>
       <c r="X89" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>37</v>
       </c>
@@ -5826,7 +5817,7 @@
         <v>4</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="K90" s="3"/>
       <c r="L90" s="1" t="s">
@@ -5850,13 +5841,13 @@
         <v>2016</v>
       </c>
       <c r="X90" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF90" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="91" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>57</v>
       </c>
@@ -5872,7 +5863,7 @@
         <v>4</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="1" t="s">
@@ -5896,10 +5887,10 @@
         <v>2013</v>
       </c>
       <c r="X91" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>31</v>
       </c>
@@ -5917,7 +5908,7 @@
         <v>4</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K92" s="3"/>
       <c r="L92" s="1" t="s">
@@ -5940,14 +5931,14 @@
       <c r="W92" s="1">
         <v>2024</v>
       </c>
-      <c r="X92" s="18" t="s">
-        <v>80</v>
+      <c r="X92" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="AF92" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="93" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>45</v>
       </c>
@@ -5965,7 +5956,7 @@
         <v>4</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="1" t="s">
@@ -5989,13 +5980,13 @@
         <v>2024</v>
       </c>
       <c r="X93" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>46</v>
       </c>
@@ -6015,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="3"/>
@@ -6044,7 +6035,7 @@
         <v>2024</v>
       </c>
       <c r="X94" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
@@ -6054,7 +6045,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
@@ -6063,7 +6054,7 @@
       <c r="AK94" s="1"/>
       <c r="AL94" s="1"/>
     </row>
-    <row r="95" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>47</v>
       </c>
@@ -6081,7 +6072,7 @@
         <v>4</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="1" t="s">
@@ -6105,13 +6096,13 @@
         <v>2024</v>
       </c>
       <c r="X95" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>48</v>
       </c>
@@ -6129,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K96" s="3"/>
       <c r="L96" s="1" t="s">
@@ -6153,13 +6144,13 @@
         <v>2024</v>
       </c>
       <c r="X96" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="97" spans="1:38" s="20" customFormat="1" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>49</v>
       </c>
@@ -6179,7 +6170,7 @@
         <v>4</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="3"/>
@@ -6208,7 +6199,7 @@
         <v>2024</v>
       </c>
       <c r="X97" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
@@ -6218,7 +6209,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
@@ -6227,7 +6218,7 @@
       <c r="AK97" s="1"/>
       <c r="AL97" s="1"/>
     </row>
-    <row r="98" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>50</v>
       </c>
@@ -6245,7 +6236,7 @@
         <v>4</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K98" s="3"/>
       <c r="L98" s="1" t="s">
@@ -6269,13 +6260,13 @@
         <v>2024</v>
       </c>
       <c r="X98" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF98" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>51</v>
       </c>
@@ -6293,7 +6284,7 @@
         <v>4</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="1" t="s">
@@ -6317,13 +6308,13 @@
         <v>2024</v>
       </c>
       <c r="X99" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AF99" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="100" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>34</v>
       </c>
@@ -6336,20 +6327,20 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N100" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q100" s="4">
         <v>-17</v>
@@ -6363,10 +6354,10 @@
         <v>1996</v>
       </c>
       <c r="X100" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>38</v>
       </c>
@@ -6379,20 +6370,20 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N101" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q101" s="4">
         <v>-35</v>
@@ -6406,10 +6397,10 @@
         <v>1996</v>
       </c>
       <c r="X101" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>36</v>
       </c>
@@ -6422,20 +6413,20 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K102" s="3"/>
       <c r="L102" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N102" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q102" s="4">
         <v>-84</v>
@@ -6449,10 +6440,10 @@
         <v>1996</v>
       </c>
       <c r="X102" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>28</v>
       </c>
@@ -6465,20 +6456,20 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N103" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q103" s="4">
         <v>-39</v>
@@ -6492,10 +6483,10 @@
         <v>1996</v>
       </c>
       <c r="X103" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>28</v>
       </c>
@@ -6508,11 +6499,11 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K104" s="3"/>
       <c r="L104" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>63</v>
@@ -6521,7 +6512,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q104" s="4">
         <v>10</v>
@@ -6535,10 +6526,10 @@
         <v>1996</v>
       </c>
       <c r="X104" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="105" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>41</v>
       </c>
@@ -6551,20 +6542,20 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K105" s="3"/>
       <c r="L105" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N105" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q105" s="4">
         <v>-62</v>
@@ -6578,10 +6569,10 @@
         <v>1996</v>
       </c>
       <c r="X105" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>41</v>
       </c>
@@ -6594,7 +6585,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="1" t="s">
@@ -6607,7 +6598,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q106" s="4">
         <v>-28</v>
@@ -6621,10 +6612,10 @@
         <v>1996</v>
       </c>
       <c r="X106" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>35</v>
       </c>
@@ -6637,20 +6628,20 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K107" s="3"/>
       <c r="L107" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N107" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q107" s="4">
         <v>-82.3</v>
@@ -6664,10 +6655,10 @@
         <v>1996</v>
       </c>
       <c r="X107" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="108" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>37</v>
       </c>
@@ -6680,20 +6671,20 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K108" s="3"/>
       <c r="L108" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N108" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q108" s="4">
         <v>-7</v>
@@ -6707,10 +6698,10 @@
         <v>1996</v>
       </c>
       <c r="X108" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="109" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>37</v>
       </c>
@@ -6723,7 +6714,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="1" t="s">
@@ -6736,7 +6727,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q109" s="4">
         <v>5.0999999999999996</v>
@@ -6750,10 +6741,10 @@
         <v>1996</v>
       </c>
       <c r="X109" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="110" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>26</v>
       </c>
@@ -6766,7 +6757,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K110" s="3"/>
       <c r="L110" s="1" t="s">
@@ -6779,7 +6770,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q110" s="4">
         <v>-10.5</v>
@@ -6793,10 +6784,10 @@
         <v>1996</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="111" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="111" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>27</v>
       </c>
@@ -6809,20 +6800,20 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K111" s="3"/>
       <c r="L111" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N111" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q111" s="4">
         <v>-31</v>
@@ -6836,10 +6827,10 @@
         <v>1996</v>
       </c>
       <c r="X111" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>27</v>
       </c>
@@ -6852,7 +6843,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="1" t="s">
@@ -6865,7 +6856,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q112" s="4">
         <v>-17</v>
@@ -6879,10 +6870,10 @@
         <v>1996</v>
       </c>
       <c r="X112" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="113" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>39</v>
       </c>
@@ -6895,20 +6886,20 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N113" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q113" s="4">
         <v>-37</v>
@@ -6922,10 +6913,10 @@
         <v>1996</v>
       </c>
       <c r="X113" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="114" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>39</v>
       </c>
@@ -6938,7 +6929,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K114" s="3"/>
       <c r="L114" s="1" t="s">
@@ -6951,7 +6942,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q114" s="4">
         <v>-19</v>
@@ -6965,10 +6956,10 @@
         <v>1996</v>
       </c>
       <c r="X114" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>40</v>
       </c>
@@ -6981,20 +6972,20 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K115" s="3"/>
       <c r="L115" s="1" t="s">
         <v>62</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N115" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q115" s="4">
         <v>-43</v>
@@ -7008,10 +6999,10 @@
         <v>1996</v>
       </c>
       <c r="X115" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="116" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>40</v>
       </c>
@@ -7024,7 +7015,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K116" s="3"/>
       <c r="L116" s="1" t="s">
@@ -7037,7 +7028,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q116" s="4">
         <v>-21</v>
@@ -7051,10 +7042,10 @@
         <v>1996</v>
       </c>
       <c r="X116" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="117" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>42</v>
       </c>
@@ -7067,20 +7058,20 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="N117" s="1">
         <v>298.14999999999998</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q117" s="4">
         <v>-38</v>
@@ -7094,10 +7085,10 @@
         <v>1996</v>
       </c>
       <c r="X117" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="118" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>42</v>
       </c>
@@ -7110,11 +7101,11 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K118" s="3"/>
       <c r="L118" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>63</v>
@@ -7123,7 +7114,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q118" s="4">
         <v>2</v>
@@ -7137,10 +7128,10 @@
         <v>1996</v>
       </c>
       <c r="X118" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="119" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>45</v>
       </c>
@@ -7153,7 +7144,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K119" s="3"/>
       <c r="L119" s="1" t="s">
@@ -7181,10 +7172,10 @@
         <v>2014</v>
       </c>
       <c r="X119" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>43</v>
       </c>
@@ -7197,7 +7188,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K120" s="3"/>
       <c r="L120" s="1" t="s">
@@ -7210,7 +7201,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q120" s="4">
         <v>-33.409999999999997</v>
@@ -7224,10 +7215,10 @@
         <v>2018</v>
       </c>
       <c r="X120" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>53</v>
       </c>
@@ -7243,7 +7234,7 @@
         <v>4</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" s="1" t="s">
@@ -7267,57 +7258,57 @@
         <v>2018</v>
       </c>
       <c r="X121" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="122" spans="1:32" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B122" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F122" s="22">
+      <c r="B122" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2">
         <v>5</v>
       </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="I122" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="K122" s="23"/>
-      <c r="L122" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M122" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P122" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q122" s="24">
+      <c r="G122" s="2"/>
+      <c r="H122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K122" s="3"/>
+      <c r="L122" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q122" s="4">
         <v>-5.9</v>
       </c>
-      <c r="R122" s="24"/>
-      <c r="S122" s="24">
+      <c r="R122" s="4"/>
+      <c r="S122" s="4">
         <v>-40.1</v>
       </c>
-      <c r="T122" s="24"/>
-      <c r="X122" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF122" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="123" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T122" s="4"/>
+      <c r="X122" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF122" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>59</v>
@@ -7332,7 +7323,7 @@
         <v>4</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="1" t="s">
@@ -7353,12 +7344,12 @@
       </c>
       <c r="T123" s="4"/>
       <c r="X123" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="124" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>59</v>
@@ -7373,7 +7364,7 @@
         <v>4</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" s="1" t="s">
@@ -7394,15 +7385,15 @@
       </c>
       <c r="T124" s="4"/>
       <c r="X124" s="1" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="AF124" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="125" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>59</v>
@@ -7417,7 +7408,7 @@
         <v>4</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="1" t="s">
@@ -7441,15 +7432,15 @@
         <v>2022</v>
       </c>
       <c r="X125" s="1" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="AF125" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="126" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>59</v>
@@ -7464,7 +7455,7 @@
         <v>4</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="1" t="s">
@@ -7488,12 +7479,12 @@
         <v>2021</v>
       </c>
       <c r="X126" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>59</v>
@@ -7508,7 +7499,7 @@
         <v>4</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K127" s="3"/>
       <c r="L127" s="1" t="s">
@@ -7532,12 +7523,12 @@
         <v>2025</v>
       </c>
       <c r="X127" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="128" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>59</v>
@@ -7552,7 +7543,7 @@
         <v>4</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="K128" s="3"/>
       <c r="L128" s="1" t="s">
@@ -7573,12 +7564,12 @@
       </c>
       <c r="T128" s="4"/>
       <c r="X128" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>59</v>
@@ -7593,7 +7584,7 @@
         <v>4</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="K129" s="3"/>
       <c r="L129" s="1" t="s">
@@ -7617,15 +7608,15 @@
         <v>2024</v>
       </c>
       <c r="X129" s="1" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="AF129" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="130" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>59</v>
@@ -7640,7 +7631,7 @@
         <v>4</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="K130" s="3"/>
       <c r="L130" s="1" t="s">
@@ -7664,12 +7655,12 @@
         <v>2023</v>
       </c>
       <c r="X130" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="131" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>59</v>
@@ -7684,7 +7675,7 @@
         <v>4</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="K131" s="3"/>
       <c r="L131" s="1" t="s">
@@ -7708,12 +7699,12 @@
         <v>2023</v>
       </c>
       <c r="X131" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="132" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>59</v>
@@ -7728,7 +7719,7 @@
         <v>4</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" s="1" t="s">
@@ -7752,12 +7743,12 @@
         <v>2023</v>
       </c>
       <c r="X132" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="133" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>59</v>
@@ -7772,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="K133" s="3"/>
       <c r="L133" s="1" t="s">
@@ -7796,65 +7787,65 @@
         <v>2023</v>
       </c>
       <c r="X133" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="134" spans="1:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C134" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F134" s="9">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" s="8">
         <v>0.05</v>
       </c>
-      <c r="H134" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I134" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K134" s="10"/>
-      <c r="L134" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M134" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P134" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q134" s="25">
+      <c r="H134" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K134" s="9"/>
+      <c r="L134" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M134" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P134" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q134" s="20">
         <v>-18.11</v>
       </c>
-      <c r="R134" s="25"/>
-      <c r="S134" s="25">
+      <c r="R134" s="20"/>
+      <c r="S134" s="20">
         <v>-8.65</v>
       </c>
-      <c r="T134" s="25"/>
-      <c r="W134" s="9">
+      <c r="T134" s="20"/>
+      <c r="W134" s="8">
         <v>2022</v>
       </c>
-      <c r="X134" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD134" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE134" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AF134" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="135" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X134" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD134" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE134" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF134" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>59</v>
@@ -7869,7 +7860,7 @@
         <v>4</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="K135" s="3"/>
       <c r="L135" s="1" t="s">
@@ -7893,15 +7884,15 @@
         <v>2022</v>
       </c>
       <c r="X135" s="1" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="AF135" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="136" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>59</v>
@@ -7916,7 +7907,7 @@
         <v>4</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K136" s="3"/>
       <c r="L136" s="1" t="s">
@@ -7940,15 +7931,15 @@
         <v>2022</v>
       </c>
       <c r="X136" s="1" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="AF136" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="137" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>59</v>
@@ -7963,7 +7954,7 @@
         <v>4</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" s="1" t="s">
@@ -7987,15 +7978,15 @@
         <v>2023</v>
       </c>
       <c r="X137" s="1" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="AF137" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="138" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>59</v>
@@ -8010,7 +8001,7 @@
         <v>4</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K138" s="3"/>
       <c r="L138" s="1" t="s">
@@ -8038,12 +8029,12 @@
         <v>2014</v>
       </c>
       <c r="X138" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="139" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>59</v>
@@ -8058,7 +8049,7 @@
         <v>4</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" s="1" t="s">
@@ -8082,15 +8073,15 @@
         <v>2024</v>
       </c>
       <c r="X139" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="AF139" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="140" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>59</v>
@@ -8105,7 +8096,7 @@
         <v>4</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" s="1" t="s">
@@ -8129,15 +8120,15 @@
         <v>2024</v>
       </c>
       <c r="X140" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="AF140" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="141" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>59</v>
@@ -8160,19 +8151,19 @@
       <c r="W141" s="1">
         <v>2020</v>
       </c>
-      <c r="X141" s="21" t="s">
-        <v>260</v>
+      <c r="X141" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AD141" s="1" t="s">
-        <v>271</v>
+        <v>220</v>
       </c>
       <c r="AE141" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="142" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>273</v>
+        <v>222</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>59</v>
@@ -8187,7 +8178,7 @@
         <v>4</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K142" s="3"/>
       <c r="L142" s="1" t="s">
@@ -8215,12 +8206,12 @@
         <v>2015</v>
       </c>
       <c r="X142" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="143" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>59</v>
@@ -8235,7 +8226,7 @@
         <v>4</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="K143" s="3"/>
       <c r="L143" s="1" t="s">
@@ -8263,12 +8254,12 @@
         <v>2016</v>
       </c>
       <c r="X143" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="144" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>59</v>
@@ -8283,7 +8274,7 @@
         <v>4</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K144" s="3"/>
       <c r="L144" s="1" t="s">
@@ -8311,15 +8302,15 @@
         <v>2023</v>
       </c>
       <c r="X144" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF144" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="145" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>59</v>
@@ -8334,7 +8325,7 @@
         <v>4</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K145" s="3"/>
       <c r="L145" s="1" t="s">
@@ -8362,15 +8353,15 @@
         <v>2023</v>
       </c>
       <c r="X145" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF145" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="146" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>59</v>
@@ -8385,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K146" s="3"/>
       <c r="L146" s="1" t="s">
@@ -8413,15 +8404,15 @@
         <v>2023</v>
       </c>
       <c r="X146" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF146" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="147" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>59</v>
@@ -8436,7 +8427,7 @@
         <v>4</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="1" t="s">
@@ -8464,15 +8455,15 @@
         <v>2023</v>
       </c>
       <c r="X147" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF147" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="148" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>59</v>
@@ -8487,7 +8478,7 @@
         <v>4</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K148" s="3"/>
       <c r="L148" s="1" t="s">
@@ -8515,15 +8506,15 @@
         <v>2023</v>
       </c>
       <c r="X148" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF148" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="149" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>59</v>
@@ -8538,7 +8529,7 @@
         <v>4</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K149" s="3"/>
       <c r="L149" s="1" t="s">
@@ -8566,15 +8557,15 @@
         <v>2023</v>
       </c>
       <c r="X149" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF149" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="150" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>59</v>
@@ -8589,7 +8580,7 @@
         <v>4</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K150" s="3"/>
       <c r="L150" s="1" t="s">
@@ -8617,15 +8608,15 @@
         <v>2023</v>
       </c>
       <c r="X150" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF150" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="151" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="151" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>59</v>
@@ -8640,7 +8631,7 @@
         <v>4</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="1" t="s">
@@ -8664,15 +8655,15 @@
         <v>2023</v>
       </c>
       <c r="X151" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF151" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>59</v>
@@ -8687,7 +8678,7 @@
         <v>4</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="K152" s="3"/>
       <c r="L152" s="1" t="s">
@@ -8711,15 +8702,15 @@
         <v>2023</v>
       </c>
       <c r="X152" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF152" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="153" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>300</v>
+        <v>238</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>59</v>
@@ -8734,7 +8725,7 @@
         <v>4</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="1" t="s">
@@ -8758,15 +8749,15 @@
         <v>2023</v>
       </c>
       <c r="X153" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF153" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="154" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>59</v>
@@ -8781,7 +8772,7 @@
         <v>4</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>286</v>
+        <v>235</v>
       </c>
       <c r="K154" s="3"/>
       <c r="L154" s="1" t="s">
@@ -8805,15 +8796,15 @@
         <v>2023</v>
       </c>
       <c r="X154" s="1" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="AF154" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="155" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>59</v>
@@ -8822,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K155" s="3"/>
       <c r="L155" s="1" t="s">
@@ -8845,16 +8836,16 @@
       <c r="W155" s="1">
         <v>2010</v>
       </c>
-      <c r="X155" s="28" t="s">
-        <v>303</v>
+      <c r="X155" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="AF155" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>59</v>
@@ -8869,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="K156" s="3"/>
       <c r="L156" s="1" t="s">
@@ -8897,15 +8888,15 @@
         <v>2017</v>
       </c>
       <c r="X156" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="157" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>308</v>
+        <v>59</v>
       </c>
       <c r="C157" s="1" t="b">
         <v>1</v>
@@ -8914,7 +8905,7 @@
         <v>5.6</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" s="1" t="s">
@@ -8942,12 +8933,12 @@
         <v>2011</v>
       </c>
       <c r="X157" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="158" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>59</v>
@@ -8956,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K158" s="3"/>
       <c r="L158" s="1" t="s">
@@ -8979,13 +8970,16 @@
       <c r="W158" s="1">
         <v>2014</v>
       </c>
-      <c r="X158" s="28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="159" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X158" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="B159" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C159" s="1" t="b">
         <v>1</v>
@@ -8994,7 +8988,7 @@
         <v>4</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="K159" s="3"/>
       <c r="L159" s="1" t="s">
@@ -9017,17 +9011,24 @@
         <v>-16</v>
       </c>
       <c r="T159" s="4"/>
-      <c r="V159" s="2">
+      <c r="U159" s="2">
         <f>Q159-(S159/1000*N159)</f>
         <v>-2.1296000000000008</v>
       </c>
+      <c r="V159" s="2"/>
+      <c r="W159" s="1">
+        <v>2014</v>
+      </c>
       <c r="X159" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="160" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="B160" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C160" s="1" t="b">
         <v>1</v>
@@ -9036,7 +9037,7 @@
         <v>4</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K160" s="3"/>
       <c r="L160" s="1" t="s">
@@ -9059,15 +9060,22 @@
         <v>-7.1</v>
       </c>
       <c r="T160" s="4"/>
-      <c r="V160" s="2">
+      <c r="U160" s="2">
         <f>(Q160-(S160/1000*N160))</f>
         <v>-2.5231349999999999</v>
       </c>
+      <c r="V160" s="2"/>
+      <c r="W160" s="1">
+        <v>2014</v>
+      </c>
       <c r="X160" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="161" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="B161" s="1" t="s">
         <v>59</v>
       </c>
@@ -9078,7 +9086,7 @@
         <v>4</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>109</v>
+        <v>223</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="1" t="s">
@@ -9086,6 +9094,9 @@
       </c>
       <c r="M161" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="N161" s="1">
+        <v>298.14999999999998</v>
       </c>
       <c r="P161" s="1" t="s">
         <v>64</v>
@@ -9098,21 +9109,770 @@
         <v>-51</v>
       </c>
       <c r="T161" s="4"/>
+      <c r="W161" s="1">
+        <v>2014</v>
+      </c>
       <c r="X161" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="X163"/>
-    </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="X164"/>
-    </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="X165"/>
-    </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="X166" s="27"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J162" s="1"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N162" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q162" s="4">
+        <v>-15.5</v>
+      </c>
+      <c r="R162" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="S162" s="4">
+        <v>-47.2</v>
+      </c>
+      <c r="T162" s="4">
+        <v>2</v>
+      </c>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1">
+        <v>2025</v>
+      </c>
+      <c r="X162" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y162" s="1"/>
+      <c r="Z162" s="1"/>
+      <c r="AA162" s="1"/>
+      <c r="AB162" s="1"/>
+      <c r="AC162" s="1"/>
+      <c r="AD162" s="1"/>
+      <c r="AE162" s="1"/>
+      <c r="AF162" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG162" s="1"/>
+      <c r="AH162" s="1"/>
+      <c r="AI162" s="1"/>
+      <c r="AJ162" s="1"/>
+      <c r="AK162" s="1"/>
+      <c r="AL162" s="1"/>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J163" s="1"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N163" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q163" s="4">
+        <v>-15.1</v>
+      </c>
+      <c r="R163" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S163" s="4">
+        <v>-47.4</v>
+      </c>
+      <c r="T163" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="W163" s="1">
+        <v>2025</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y163" s="1"/>
+      <c r="Z163" s="1"/>
+      <c r="AA163" s="1"/>
+      <c r="AB163" s="1"/>
+      <c r="AC163" s="1"/>
+      <c r="AD163" s="1"/>
+      <c r="AE163" s="1"/>
+      <c r="AF163" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG163" s="1"/>
+      <c r="AH163" s="1"/>
+      <c r="AI163" s="1"/>
+      <c r="AJ163" s="1"/>
+      <c r="AK163" s="1"/>
+      <c r="AL163" s="1"/>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C164" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J164" s="1"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N164" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q164" s="4">
+        <v>-15.9</v>
+      </c>
+      <c r="R164" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S164" s="4">
+        <v>-47.4</v>
+      </c>
+      <c r="T164" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="W164" s="1">
+        <v>2025</v>
+      </c>
+      <c r="X164" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y164" s="1"/>
+      <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
+      <c r="AB164" s="1"/>
+      <c r="AC164" s="1"/>
+      <c r="AD164" s="1"/>
+      <c r="AE164" s="1"/>
+      <c r="AF164" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG164" s="1"/>
+      <c r="AH164" s="1"/>
+      <c r="AI164" s="1"/>
+      <c r="AJ164" s="1"/>
+      <c r="AK164" s="1"/>
+      <c r="AL164" s="1"/>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C165" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1">
+        <v>2</v>
+      </c>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J165" s="1"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N165" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q165" s="4">
+        <v>-16.2</v>
+      </c>
+      <c r="R165" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S165" s="4">
+        <v>-47.5</v>
+      </c>
+      <c r="T165" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="U165" s="1"/>
+      <c r="V165" s="1"/>
+      <c r="W165" s="1">
+        <v>2025</v>
+      </c>
+      <c r="X165" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y165" s="1"/>
+      <c r="Z165" s="1"/>
+      <c r="AA165" s="1"/>
+      <c r="AB165" s="1"/>
+      <c r="AC165" s="1"/>
+      <c r="AD165" s="1"/>
+      <c r="AE165" s="1"/>
+      <c r="AF165" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG165" s="1"/>
+      <c r="AH165" s="1"/>
+      <c r="AI165" s="1"/>
+      <c r="AJ165" s="1"/>
+      <c r="AK165" s="1"/>
+      <c r="AL165" s="1"/>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A166" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C166" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J166" s="1"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N166" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q166" s="4">
+        <v>-11.8</v>
+      </c>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4">
+        <v>-29.6</v>
+      </c>
+      <c r="T166" s="4"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+      <c r="W166" s="1">
+        <v>2024</v>
+      </c>
+      <c r="X166" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y166" s="1"/>
+      <c r="Z166" s="1"/>
+      <c r="AA166" s="1"/>
+      <c r="AB166" s="1"/>
+      <c r="AC166" s="1"/>
+      <c r="AD166" s="1"/>
+      <c r="AE166" s="1"/>
+      <c r="AF166" s="1"/>
+      <c r="AG166" s="1"/>
+      <c r="AH166" s="1"/>
+      <c r="AI166" s="1"/>
+      <c r="AJ166" s="1"/>
+      <c r="AK166" s="1"/>
+      <c r="AL166" s="1"/>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A167" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C167" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J167" s="1"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N167" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q167" s="4">
+        <v>-13.1</v>
+      </c>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4">
+        <v>-37</v>
+      </c>
+      <c r="T167" s="4"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+      <c r="W167" s="1">
+        <v>2024</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y167" s="1"/>
+      <c r="Z167" s="1"/>
+      <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
+      <c r="AC167" s="1"/>
+      <c r="AD167" s="1"/>
+      <c r="AE167" s="1"/>
+      <c r="AF167" s="1"/>
+      <c r="AG167" s="1"/>
+      <c r="AH167" s="1"/>
+      <c r="AI167" s="1"/>
+      <c r="AJ167" s="1"/>
+      <c r="AK167" s="1"/>
+      <c r="AL167" s="1"/>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A168" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C168" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J168" s="1"/>
+      <c r="K168" s="3"/>
+      <c r="L168" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N168" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q168" s="4">
+        <v>-7.9</v>
+      </c>
+      <c r="R168" s="4"/>
+      <c r="S168" s="4">
+        <v>-34.1</v>
+      </c>
+      <c r="T168" s="4"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
+      <c r="W168" s="1">
+        <v>2024</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y168" s="1"/>
+      <c r="Z168" s="1"/>
+      <c r="AA168" s="1"/>
+      <c r="AB168" s="1"/>
+      <c r="AC168" s="1"/>
+      <c r="AD168" s="1"/>
+      <c r="AE168" s="1"/>
+      <c r="AF168" s="1"/>
+      <c r="AG168" s="1"/>
+      <c r="AH168" s="1"/>
+      <c r="AI168" s="1"/>
+      <c r="AJ168" s="1"/>
+      <c r="AK168" s="1"/>
+      <c r="AL168" s="1"/>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A169" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J169" s="1"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N169" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q169" s="4">
+        <v>-2</v>
+      </c>
+      <c r="R169" s="4"/>
+      <c r="S169" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="T169" s="4"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
+      <c r="W169" s="1">
+        <v>2024</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y169" s="1"/>
+      <c r="Z169" s="1"/>
+      <c r="AA169" s="1"/>
+      <c r="AB169" s="1"/>
+      <c r="AC169" s="1"/>
+      <c r="AD169" s="1"/>
+      <c r="AE169" s="1"/>
+      <c r="AF169" s="1"/>
+      <c r="AG169" s="1"/>
+      <c r="AH169" s="1"/>
+      <c r="AI169" s="1"/>
+      <c r="AJ169" s="1"/>
+      <c r="AK169" s="1"/>
+      <c r="AL169" s="1"/>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A170" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J170" s="1"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N170" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q170" s="4">
+        <v>-23.7</v>
+      </c>
+      <c r="R170" s="4"/>
+      <c r="S170" s="4">
+        <v>-42.9</v>
+      </c>
+      <c r="T170" s="4"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+      <c r="W170" s="1">
+        <v>2024</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y170" s="1"/>
+      <c r="Z170" s="1"/>
+      <c r="AA170" s="1"/>
+      <c r="AB170" s="1"/>
+      <c r="AC170" s="1"/>
+      <c r="AD170" s="1"/>
+      <c r="AE170" s="1"/>
+      <c r="AF170" s="1"/>
+      <c r="AG170" s="1"/>
+      <c r="AH170" s="1"/>
+      <c r="AI170" s="1"/>
+      <c r="AJ170" s="1"/>
+      <c r="AK170" s="1"/>
+      <c r="AL170" s="1"/>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A171" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J171" s="1"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N171" s="1">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q171" s="4">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4">
+        <v>-12.8</v>
+      </c>
+      <c r="T171" s="4"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
+      <c r="W171" s="1">
+        <v>2024</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y171" s="1"/>
+      <c r="Z171" s="1"/>
+      <c r="AA171" s="1"/>
+      <c r="AB171" s="1"/>
+      <c r="AC171" s="1"/>
+      <c r="AD171" s="1"/>
+      <c r="AE171" s="1"/>
+      <c r="AF171" s="1"/>
+      <c r="AG171" s="1"/>
+      <c r="AH171" s="1"/>
+      <c r="AI171" s="1"/>
+      <c r="AJ171" s="1"/>
+      <c r="AK171" s="1"/>
+      <c r="AL171" s="1"/>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A172" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I172" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J172" s="24"/>
+      <c r="K172" s="25"/>
+      <c r="L172" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M172" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N172" s="24">
+        <v>298.14999999999998</v>
+      </c>
+      <c r="O172" s="24"/>
+      <c r="P172" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q172" s="26">
+        <v>-17</v>
+      </c>
+      <c r="R172" s="26"/>
+      <c r="S172" s="26">
+        <v>-23</v>
+      </c>
+      <c r="T172" s="26"/>
+      <c r="U172" s="24"/>
+      <c r="V172" s="24"/>
+      <c r="W172" s="24">
+        <v>2024</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y172" s="24"/>
+      <c r="Z172" s="24"/>
+      <c r="AA172" s="24"/>
+      <c r="AB172" s="24"/>
+      <c r="AC172" s="24"/>
+      <c r="AD172" s="24"/>
+      <c r="AE172" s="24"/>
+      <c r="AF172" s="24"/>
+      <c r="AG172" s="24"/>
+      <c r="AH172" s="24"/>
+      <c r="AI172" s="24"/>
+      <c r="AJ172" s="24"/>
+      <c r="AK172" s="24"/>
+      <c r="AL172" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AL94" xr:uid="{00000000-0001-0000-0000-000000000000}">
@@ -9120,157 +9880,23 @@
       <sortCondition ref="X1:X94"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301BA1A3-797F-487B-981C-0F19D311ABD7}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="30">
-        <v>8.3140000000000001</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="31">
-        <v>4.1840000000000002</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="31">
-        <v>-2.3610000000000002</v>
-      </c>
-      <c r="G5" s="30">
-        <f>F5*C2</f>
-        <v>-19.629354000000003</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="F6" s="31">
-        <v>-6.1356999999999999</v>
-      </c>
-      <c r="G6" s="30">
-        <f>F6*C2</f>
-        <v>-51.012209800000001</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9279,7 +9905,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002914CBC9445B8347939C6B4510D67668" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="debcf52f3d4c81bc84586c816ca1bc65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5f270ae-dbad-4cfd-80e2-71659db687aa" xmlns:ns3="240bb28e-6377-48b0-832f-151ffa71870e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0db2ad47acd613f43945cc47365a45bf" ns2:_="" ns3:_="">
     <xsd:import namespace="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
@@ -9508,18 +10134,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="240bb28e-6377-48b0-832f-151ffa71870e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5f270ae-dbad-4cfd-80e2-71659db687aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB02FF4E-10B3-4B92-B10C-B2349DBBFE67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
+    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E31F8A5B-9EBA-4355-A82B-5141D4A521CE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -9527,7 +10159,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62789F9-1650-4133-931E-1E27A89DED57}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9544,21 +10176,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB02FF4E-10B3-4B92-B10C-B2349DBBFE67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="240bb28e-6377-48b0-832f-151ffa71870e"/>
-    <ds:schemaRef ds:uri="b5f270ae-dbad-4cfd-80e2-71659db687aa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>